--- a/output/Restab_D62_NTCnoRAPA_DIFF_noRAPA.xlsx
+++ b/output/Restab_D62_NTCnoRAPA_DIFF_noRAPA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="1130">
   <si>
     <t xml:space="preserve">entrezgene</t>
   </si>
@@ -107,6 +107,9 @@
     <t xml:space="preserve">65108</t>
   </si>
   <si>
+    <t xml:space="preserve">MARCKSL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">6421</t>
   </si>
   <si>
@@ -332,6 +335,9 @@
     <t xml:space="preserve">50486</t>
   </si>
   <si>
+    <t xml:space="preserve">G0S2</t>
+  </si>
+  <si>
     <t xml:space="preserve">1063</t>
   </si>
   <si>
@@ -383,6 +389,9 @@
     <t xml:space="preserve">57512</t>
   </si>
   <si>
+    <t xml:space="preserve">GPR158</t>
+  </si>
+  <si>
     <t xml:space="preserve">3185</t>
   </si>
   <si>
@@ -521,6 +530,9 @@
     <t xml:space="preserve">6181</t>
   </si>
   <si>
+    <t xml:space="preserve">RPLP2</t>
+  </si>
+  <si>
     <t xml:space="preserve">977</t>
   </si>
   <si>
@@ -566,6 +578,9 @@
     <t xml:space="preserve">6157</t>
   </si>
   <si>
+    <t xml:space="preserve">RPL27A</t>
+  </si>
+  <si>
     <t xml:space="preserve">56672</t>
   </si>
   <si>
@@ -575,9 +590,6 @@
     <t xml:space="preserve">100463486</t>
   </si>
   <si>
-    <t xml:space="preserve">MTRNR2L8</t>
-  </si>
-  <si>
     <t xml:space="preserve">10335</t>
   </si>
   <si>
@@ -614,6 +626,9 @@
     <t xml:space="preserve">1937</t>
   </si>
   <si>
+    <t xml:space="preserve">EEF1G</t>
+  </si>
+  <si>
     <t xml:space="preserve">6094</t>
   </si>
   <si>
@@ -752,9 +767,15 @@
     <t xml:space="preserve">84926</t>
   </si>
   <si>
+    <t xml:space="preserve">SPRYD3</t>
+  </si>
+  <si>
     <t xml:space="preserve">3489</t>
   </si>
   <si>
+    <t xml:space="preserve">IGFBP6</t>
+  </si>
+  <si>
     <t xml:space="preserve">967</t>
   </si>
   <si>
@@ -818,6 +839,9 @@
     <t xml:space="preserve">429</t>
   </si>
   <si>
+    <t xml:space="preserve">ASCL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">51559</t>
   </si>
   <si>
@@ -896,6 +920,9 @@
     <t xml:space="preserve">9472</t>
   </si>
   <si>
+    <t xml:space="preserve">AKAP6</t>
+  </si>
+  <si>
     <t xml:space="preserve">64067</t>
   </si>
   <si>
@@ -995,6 +1022,9 @@
     <t xml:space="preserve">145508</t>
   </si>
   <si>
+    <t xml:space="preserve">CEP128</t>
+  </si>
+  <si>
     <t xml:space="preserve">10516</t>
   </si>
   <si>
@@ -1016,6 +1046,9 @@
     <t xml:space="preserve">83982</t>
   </si>
   <si>
+    <t xml:space="preserve">IFI27L2</t>
+  </si>
+  <si>
     <t xml:space="preserve">283596</t>
   </si>
   <si>
@@ -1031,6 +1064,9 @@
     <t xml:space="preserve">1778</t>
   </si>
   <si>
+    <t xml:space="preserve">DYNC1H1</t>
+  </si>
+  <si>
     <t xml:space="preserve">7127</t>
   </si>
   <si>
@@ -1040,6 +1076,9 @@
     <t xml:space="preserve">26153</t>
   </si>
   <si>
+    <t xml:space="preserve">KIF26A</t>
+  </si>
+  <si>
     <t xml:space="preserve">7057</t>
   </si>
   <si>
@@ -1103,6 +1142,9 @@
     <t xml:space="preserve">4016</t>
   </si>
   <si>
+    <t xml:space="preserve">LOXL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">57611</t>
   </si>
   <si>
@@ -1130,9 +1172,15 @@
     <t xml:space="preserve">6627</t>
   </si>
   <si>
+    <t xml:space="preserve">SNRPA1</t>
+  </si>
+  <si>
     <t xml:space="preserve">146330</t>
   </si>
   <si>
+    <t xml:space="preserve">FBXL16</t>
+  </si>
+  <si>
     <t xml:space="preserve">1186</t>
   </si>
   <si>
@@ -1175,6 +1223,9 @@
     <t xml:space="preserve">388228</t>
   </si>
   <si>
+    <t xml:space="preserve">SBK1</t>
+  </si>
+  <si>
     <t xml:space="preserve">25970</t>
   </si>
   <si>
@@ -1184,6 +1235,9 @@
     <t xml:space="preserve">4502</t>
   </si>
   <si>
+    <t xml:space="preserve">MT2A</t>
+  </si>
+  <si>
     <t xml:space="preserve">6236</t>
   </si>
   <si>
@@ -1199,6 +1253,9 @@
     <t xml:space="preserve">5699</t>
   </si>
   <si>
+    <t xml:space="preserve">PSMB10</t>
+  </si>
+  <si>
     <t xml:space="preserve">6560</t>
   </si>
   <si>
@@ -1220,12 +1277,15 @@
     <t xml:space="preserve">497190</t>
   </si>
   <si>
-    <t xml:space="preserve">CLEC18B</t>
+    <t xml:space="preserve">CLEC18B;CLEC18C</t>
   </si>
   <si>
     <t xml:space="preserve">57687</t>
   </si>
   <si>
+    <t xml:space="preserve">VAT1L</t>
+  </si>
+  <si>
     <t xml:space="preserve">55839</t>
   </si>
   <si>
@@ -1301,6 +1361,9 @@
     <t xml:space="preserve">201161</t>
   </si>
   <si>
+    <t xml:space="preserve">CENPV</t>
+  </si>
+  <si>
     <t xml:space="preserve">51655</t>
   </si>
   <si>
@@ -1394,6 +1457,9 @@
     <t xml:space="preserve">4836</t>
   </si>
   <si>
+    <t xml:space="preserve">NMT1</t>
+  </si>
+  <si>
     <t xml:space="preserve">113026</t>
   </si>
   <si>
@@ -1553,6 +1619,9 @@
     <t xml:space="preserve">10272</t>
   </si>
   <si>
+    <t xml:space="preserve">FSTL3</t>
+  </si>
+  <si>
     <t xml:space="preserve">2879</t>
   </si>
   <si>
@@ -1628,6 +1697,9 @@
     <t xml:space="preserve">9592</t>
   </si>
   <si>
+    <t xml:space="preserve">IER2</t>
+  </si>
+  <si>
     <t xml:space="preserve">23025</t>
   </si>
   <si>
@@ -1763,6 +1835,9 @@
     <t xml:space="preserve">147807</t>
   </si>
   <si>
+    <t xml:space="preserve">ZNF524</t>
+  </si>
+  <si>
     <t xml:space="preserve">101060391</t>
   </si>
   <si>
@@ -1847,9 +1922,15 @@
     <t xml:space="preserve">3625</t>
   </si>
   <si>
+    <t xml:space="preserve">INHBB</t>
+  </si>
+  <si>
     <t xml:space="preserve">2863</t>
   </si>
   <si>
+    <t xml:space="preserve">GPR39</t>
+  </si>
+  <si>
     <t xml:space="preserve">4249</t>
   </si>
   <si>
@@ -1949,6 +2030,9 @@
     <t xml:space="preserve">7857</t>
   </si>
   <si>
+    <t xml:space="preserve">SCG2</t>
+  </si>
+  <si>
     <t xml:space="preserve">5270</t>
   </si>
   <si>
@@ -2042,9 +2126,6 @@
     <t xml:space="preserve">100462983</t>
   </si>
   <si>
-    <t xml:space="preserve">MTRNR2L3</t>
-  </si>
-  <si>
     <t xml:space="preserve">56937</t>
   </si>
   <si>
@@ -2072,6 +2153,9 @@
     <t xml:space="preserve">4661</t>
   </si>
   <si>
+    <t xml:space="preserve">MYT1</t>
+  </si>
+  <si>
     <t xml:space="preserve">140578</t>
   </si>
   <si>
@@ -2315,6 +2399,9 @@
     <t xml:space="preserve">55081</t>
   </si>
   <si>
+    <t xml:space="preserve">IFT57</t>
+  </si>
+  <si>
     <t xml:space="preserve">29114</t>
   </si>
   <si>
@@ -2408,6 +2495,9 @@
     <t xml:space="preserve">79730</t>
   </si>
   <si>
+    <t xml:space="preserve">NSUN7</t>
+  </si>
+  <si>
     <t xml:space="preserve">9662</t>
   </si>
   <si>
@@ -2453,6 +2543,9 @@
     <t xml:space="preserve">5188</t>
   </si>
   <si>
+    <t xml:space="preserve">GATB</t>
+  </si>
+  <si>
     <t xml:space="preserve">84057</t>
   </si>
   <si>
@@ -2480,6 +2573,9 @@
     <t xml:space="preserve">134121</t>
   </si>
   <si>
+    <t xml:space="preserve">C5orf49</t>
+  </si>
+  <si>
     <t xml:space="preserve">100505738</t>
   </si>
   <si>
@@ -2543,6 +2639,9 @@
     <t xml:space="preserve">7025</t>
   </si>
   <si>
+    <t xml:space="preserve">NR2F1</t>
+  </si>
+  <si>
     <t xml:space="preserve">1946</t>
   </si>
   <si>
@@ -2645,6 +2744,9 @@
     <t xml:space="preserve">51617</t>
   </si>
   <si>
+    <t xml:space="preserve">NSG2</t>
+  </si>
+  <si>
     <t xml:space="preserve">10814</t>
   </si>
   <si>
@@ -2672,6 +2774,9 @@
     <t xml:space="preserve">3400</t>
   </si>
   <si>
+    <t xml:space="preserve">ID4</t>
+  </si>
+  <si>
     <t xml:space="preserve">10590</t>
   </si>
   <si>
@@ -2795,6 +2900,9 @@
     <t xml:space="preserve">51696</t>
   </si>
   <si>
+    <t xml:space="preserve">HECA</t>
+  </si>
+  <si>
     <t xml:space="preserve">168090</t>
   </si>
   <si>
@@ -2888,12 +2996,21 @@
     <t xml:space="preserve">25798</t>
   </si>
   <si>
+    <t xml:space="preserve">BRI3</t>
+  </si>
+  <si>
     <t xml:space="preserve">245812</t>
   </si>
   <si>
+    <t xml:space="preserve">CNPY4</t>
+  </si>
+  <si>
     <t xml:space="preserve">7205</t>
   </si>
   <si>
+    <t xml:space="preserve">TRIP6</t>
+  </si>
+  <si>
     <t xml:space="preserve">5054</t>
   </si>
   <si>
@@ -3065,6 +3182,9 @@
     <t xml:space="preserve">10210</t>
   </si>
   <si>
+    <t xml:space="preserve">TOPORS</t>
+  </si>
+  <si>
     <t xml:space="preserve">2683</t>
   </si>
   <si>
@@ -3215,10 +3335,19 @@
     <t xml:space="preserve">6173</t>
   </si>
   <si>
+    <t xml:space="preserve">RPL36A</t>
+  </si>
+  <si>
     <t xml:space="preserve">11013</t>
   </si>
   <si>
+    <t xml:space="preserve">TMSB15A</t>
+  </si>
+  <si>
     <t xml:space="preserve">55859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEX1</t>
   </si>
   <si>
     <t xml:space="preserve">51186</t>
@@ -3868,7 +3997,9 @@
       <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B14"/>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
       <c r="C14" t="n">
         <v>0.491129696273564</v>
       </c>
@@ -3884,10 +4015,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
         <v>0.442497762294935</v>
@@ -3904,10 +4035,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
         <v>1.50501662927234</v>
@@ -3924,10 +4055,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
         <v>0.967487579407381</v>
@@ -3944,10 +4075,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="n">
         <v>-0.53936733504984</v>
@@ -3964,10 +4095,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="n">
         <v>3.25261172809671</v>
@@ -3984,10 +4115,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="n">
         <v>3.57927990081631</v>
@@ -4004,10 +4135,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" t="n">
         <v>0.720710742720306</v>
@@ -4024,10 +4155,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="n">
         <v>0.508411924936933</v>
@@ -4044,10 +4175,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" t="n">
         <v>0.993362354648982</v>
@@ -4064,10 +4195,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" t="n">
         <v>1.11957668842431</v>
@@ -4084,10 +4215,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" t="n">
         <v>1.75453514553663</v>
@@ -4104,10 +4235,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" t="n">
         <v>-0.388049348063199</v>
@@ -4124,10 +4255,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" t="n">
         <v>4.46148720990457</v>
@@ -4144,10 +4275,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" t="n">
         <v>-1.46417384290721</v>
@@ -4164,10 +4295,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" t="n">
         <v>-1.19758881619399</v>
@@ -4184,10 +4315,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" t="n">
         <v>-0.713181828042985</v>
@@ -4204,10 +4335,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" t="n">
         <v>-1.10907738694311</v>
@@ -4224,10 +4355,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" t="n">
         <v>-1.02422252042837</v>
@@ -4244,10 +4375,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" t="n">
         <v>-0.596425640306669</v>
@@ -4264,10 +4395,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" t="n">
         <v>0.579188152709624</v>
@@ -4284,10 +4415,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" t="n">
         <v>0.671675747663637</v>
@@ -4304,10 +4435,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" t="n">
         <v>-0.671010982287408</v>
@@ -4324,10 +4455,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" t="n">
         <v>-1.16389346019584</v>
@@ -4344,10 +4475,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" t="n">
         <v>0.38316395970276</v>
@@ -4364,10 +4495,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" t="n">
         <v>-0.861805529384032</v>
@@ -4384,10 +4515,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" t="n">
         <v>1.43007323220678</v>
@@ -4404,10 +4535,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" t="n">
         <v>1.47553722431055</v>
@@ -4424,10 +4555,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" t="n">
         <v>-0.756618830182264</v>
@@ -4444,10 +4575,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" t="n">
         <v>1.05344624412938</v>
@@ -4464,10 +4595,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" t="n">
         <v>3.40789615848148</v>
@@ -4484,10 +4615,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" t="n">
         <v>-0.654492946054681</v>
@@ -4504,10 +4635,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C46" t="n">
         <v>2.34622959945444</v>
@@ -4524,10 +4655,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" t="n">
         <v>1.39413578894832</v>
@@ -4544,10 +4675,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C48" t="n">
         <v>-1.00705585940078</v>
@@ -4564,10 +4695,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" t="n">
         <v>0.909664156856319</v>
@@ -4584,10 +4715,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" t="n">
         <v>0.422189855769297</v>
@@ -4604,10 +4735,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" t="n">
         <v>-0.673339888095747</v>
@@ -4624,9 +4755,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52"/>
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
       <c r="C52" t="n">
         <v>-1.2865007330153</v>
       </c>
@@ -4642,10 +4775,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C53" t="n">
         <v>0.958468812695307</v>
@@ -4662,10 +4795,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C54" t="n">
         <v>1.15957998965216</v>
@@ -4682,10 +4815,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C55" t="n">
         <v>-1.90627842476957</v>
@@ -4702,10 +4835,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C56" t="n">
         <v>1.81263700481233</v>
@@ -4722,10 +4855,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C57" t="n">
         <v>-0.717773717262539</v>
@@ -4742,10 +4875,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C58" t="n">
         <v>0.449905409792616</v>
@@ -4762,10 +4895,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C59" t="n">
         <v>0.893213223739254</v>
@@ -4782,10 +4915,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C60" t="n">
         <v>-1.01821118752624</v>
@@ -4802,9 +4935,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>122</v>
-      </c>
-      <c r="B61"/>
+        <v>124</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
       <c r="C61" t="n">
         <v>6.2437537711245</v>
       </c>
@@ -4820,10 +4955,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C62" t="n">
         <v>0.483328382216615</v>
@@ -4840,10 +4975,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C63" t="n">
         <v>-1.3684276682868</v>
@@ -4860,7 +4995,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B64"/>
       <c r="C64" t="n">
@@ -4878,10 +5013,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C65" t="n">
         <v>1.09765024081333</v>
@@ -4898,10 +5033,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C66" t="n">
         <v>1.45783238641131</v>
@@ -4918,10 +5053,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C67" t="n">
         <v>-1.06824094309896</v>
@@ -4938,10 +5073,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C68" t="n">
         <v>-1.65618280843694</v>
@@ -4958,10 +5093,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C69" t="n">
         <v>-0.598555302703276</v>
@@ -4978,10 +5113,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C70" t="n">
         <v>-0.709701178417599</v>
@@ -4998,10 +5133,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C71" t="n">
         <v>-0.720061756165846</v>
@@ -5018,10 +5153,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C72" t="n">
         <v>0.836320560437365</v>
@@ -5038,10 +5173,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C73" t="n">
         <v>0.710174422776002</v>
@@ -5058,10 +5193,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C74" t="n">
         <v>-0.880635649695831</v>
@@ -5078,10 +5213,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C75" t="n">
         <v>-1.42708974488703</v>
@@ -5098,10 +5233,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C76" t="n">
         <v>-0.46624164598264</v>
@@ -5118,10 +5253,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C77" t="n">
         <v>0.785523487337103</v>
@@ -5138,10 +5273,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C78" t="n">
         <v>-1.0286767419761</v>
@@ -5158,10 +5293,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C79" t="n">
         <v>-1.09122432886389</v>
@@ -5178,10 +5313,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C80" t="n">
         <v>1.10677004442328</v>
@@ -5198,10 +5333,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C81" t="n">
         <v>2.29449036012901</v>
@@ -5218,10 +5353,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C82" t="n">
         <v>1.23936736719724</v>
@@ -5238,10 +5373,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C83" t="n">
         <v>-0.623369130729171</v>
@@ -5258,10 +5393,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C84" t="n">
         <v>-1.89351097769679</v>
@@ -5278,9 +5413,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>168</v>
-      </c>
-      <c r="B85"/>
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
       <c r="C85" t="n">
         <v>-0.71748139524331</v>
       </c>
@@ -5296,10 +5433,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C86" t="n">
         <v>-0.868108021119973</v>
@@ -5316,10 +5453,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C87" t="n">
         <v>-0.498252402681366</v>
@@ -5336,10 +5473,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C88" t="n">
         <v>-1.39353975167999</v>
@@ -5356,10 +5493,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C89" t="n">
         <v>-0.69895612137581</v>
@@ -5376,10 +5513,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C90" t="n">
         <v>-0.848829576631085</v>
@@ -5396,10 +5533,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B91" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C91" t="n">
         <v>-2.60036286140324</v>
@@ -5416,10 +5553,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C92" t="n">
         <v>-1.94659475696914</v>
@@ -5436,9 +5573,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>183</v>
-      </c>
-      <c r="B93"/>
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
       <c r="C93" t="n">
         <v>-0.457616412643152</v>
       </c>
@@ -5454,10 +5593,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C94" t="n">
         <v>-0.868625821619582</v>
@@ -5474,11 +5613,9 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>186</v>
-      </c>
-      <c r="B95" t="s">
-        <v>187</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B95"/>
       <c r="C95" t="n">
         <v>-0.567002767122763</v>
       </c>
@@ -5494,10 +5631,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B96" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C96" t="n">
         <v>2.76824111793347</v>
@@ -5514,10 +5651,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B97" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C97" t="n">
         <v>2.3280349748527</v>
@@ -5534,7 +5671,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B98"/>
       <c r="C98" t="n">
@@ -5552,10 +5689,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C99" t="n">
         <v>-1.2446391936303</v>
@@ -5572,10 +5709,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C100" t="n">
         <v>-0.749407183653204</v>
@@ -5592,10 +5729,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C101" t="n">
         <v>-1.57761361681395</v>
@@ -5612,9 +5749,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>199</v>
-      </c>
-      <c r="B102"/>
+        <v>203</v>
+      </c>
+      <c r="B102" t="s">
+        <v>204</v>
+      </c>
       <c r="C102" t="n">
         <v>-0.708516652955278</v>
       </c>
@@ -5630,10 +5769,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C103" t="n">
         <v>-0.730841461980852</v>
@@ -5650,10 +5789,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C104" t="n">
         <v>-0.660920084343912</v>
@@ -5670,10 +5809,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B105" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C105" t="n">
         <v>-0.988957361025124</v>
@@ -5690,10 +5829,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B106" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C106" t="n">
         <v>-0.868504835283075</v>
@@ -5710,10 +5849,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B107" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C107" t="n">
         <v>-1.10109974458443</v>
@@ -5730,10 +5869,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B108" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C108" t="n">
         <v>-0.906384709531011</v>
@@ -5750,10 +5889,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B109" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C109" t="n">
         <v>-0.919807520464218</v>
@@ -5770,10 +5909,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B110" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C110" t="n">
         <v>-0.810705659616377</v>
@@ -5790,10 +5929,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C111" t="n">
         <v>-0.560065196137755</v>
@@ -5810,10 +5949,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C112" t="n">
         <v>-1.26280920687502</v>
@@ -5830,10 +5969,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C113" t="n">
         <v>-0.52208795138106</v>
@@ -5850,10 +5989,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B114" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C114" t="n">
         <v>1.17065519759044</v>
@@ -5870,10 +6009,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B115" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C115" t="n">
         <v>-0.915695121798697</v>
@@ -5890,10 +6029,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B116" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C116" t="n">
         <v>-0.488301498123417</v>
@@ -5910,7 +6049,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B117"/>
       <c r="C117" t="n">
@@ -5928,10 +6067,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B118" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C118" t="n">
         <v>-1.28611301346385</v>
@@ -5948,10 +6087,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B119" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C119" t="n">
         <v>-0.68648067039154</v>
@@ -5968,10 +6107,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B120" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C120" t="n">
         <v>1.95596083837902</v>
@@ -5988,10 +6127,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B121" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C121" t="n">
         <v>-0.674400149812121</v>
@@ -6008,10 +6147,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B122" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C122" t="n">
         <v>1.34745865833792</v>
@@ -6028,10 +6167,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B123" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C123" t="n">
         <v>2.18912772952626</v>
@@ -6048,10 +6187,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B124" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C124" t="n">
         <v>1.36162291626795</v>
@@ -6068,10 +6207,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B125" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C125" t="n">
         <v>1.9296629024815</v>
@@ -6088,9 +6227,11 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>245</v>
-      </c>
-      <c r="B126"/>
+        <v>250</v>
+      </c>
+      <c r="B126" t="s">
+        <v>251</v>
+      </c>
       <c r="C126" t="n">
         <v>-0.900591709916436</v>
       </c>
@@ -6106,9 +6247,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>246</v>
-      </c>
-      <c r="B127"/>
+        <v>252</v>
+      </c>
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
       <c r="C127" t="n">
         <v>-1.61587491126182</v>
       </c>
@@ -6124,10 +6267,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B128" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C128" t="n">
         <v>-0.631937536873729</v>
@@ -6144,10 +6287,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B129" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C129" t="n">
         <v>-1.02994231345121</v>
@@ -6164,10 +6307,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B130" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C130" t="n">
         <v>-0.842490084504856</v>
@@ -6184,10 +6327,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B131" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C131" t="n">
         <v>-0.544532202479509</v>
@@ -6204,10 +6347,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B132" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C132" t="n">
         <v>-0.886759556710798</v>
@@ -6224,10 +6367,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B133" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C133" t="n">
         <v>0.645743552966822</v>
@@ -6244,10 +6387,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B134" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C134" t="n">
         <v>1.65531986881186</v>
@@ -6264,10 +6407,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B135" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C135" t="n">
         <v>0.938146361035397</v>
@@ -6284,10 +6427,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B136" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C136" t="n">
         <v>0.858575812447993</v>
@@ -6304,10 +6447,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B137" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C137" t="n">
         <v>1.16881643388674</v>
@@ -6324,9 +6467,11 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>267</v>
-      </c>
-      <c r="B138"/>
+        <v>274</v>
+      </c>
+      <c r="B138" t="s">
+        <v>275</v>
+      </c>
       <c r="C138" t="n">
         <v>-2.47231875015774</v>
       </c>
@@ -6342,10 +6487,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B139" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C139" t="n">
         <v>-1.65876310921834</v>
@@ -6362,10 +6507,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B140" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C140" t="n">
         <v>0.802437378421676</v>
@@ -6382,10 +6527,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B141" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C141" t="n">
         <v>-0.8939529150803</v>
@@ -6402,7 +6547,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B142"/>
       <c r="C142" t="n">
@@ -6420,10 +6565,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B143" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C143" t="n">
         <v>-0.760251213293538</v>
@@ -6440,10 +6585,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B144" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C144" t="n">
         <v>6.26700671125599</v>
@@ -6460,10 +6605,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B145" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C145" t="n">
         <v>2.29636691085895</v>
@@ -6480,10 +6625,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B146" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C146" t="n">
         <v>-0.605029182149953</v>
@@ -6500,10 +6645,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B147" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C147" t="n">
         <v>0.710139478882734</v>
@@ -6520,10 +6665,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B148" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C148" t="n">
         <v>-0.848649689015341</v>
@@ -6540,10 +6685,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B149" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C149" t="n">
         <v>-1.52787281746661</v>
@@ -6560,10 +6705,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B150" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C150" t="n">
         <v>-0.712506059127849</v>
@@ -6580,10 +6725,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B151" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C151" t="n">
         <v>-0.547420822287661</v>
@@ -6600,9 +6745,11 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>293</v>
-      </c>
-      <c r="B152"/>
+        <v>301</v>
+      </c>
+      <c r="B152" t="s">
+        <v>302</v>
+      </c>
       <c r="C152" t="n">
         <v>1.72996907067951</v>
       </c>
@@ -6618,10 +6765,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B153" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C153" t="n">
         <v>-0.425719079680505</v>
@@ -6638,10 +6785,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B154" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C154" t="n">
         <v>-0.741961347334782</v>
@@ -6658,10 +6805,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B155" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C155" t="n">
         <v>1.73694604925929</v>
@@ -6678,10 +6825,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B156" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C156" t="n">
         <v>0.444835386233767</v>
@@ -6698,10 +6845,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B157" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C157" t="n">
         <v>3.42395085839815</v>
@@ -6718,10 +6865,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B158" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C158" t="n">
         <v>1.41178707415657</v>
@@ -6738,10 +6885,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B159" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C159" t="n">
         <v>-3.8567438526391</v>
@@ -6758,10 +6905,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B160" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C160" t="n">
         <v>0.566320963252658</v>
@@ -6778,10 +6925,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B161" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C161" t="n">
         <v>1.20460717668486</v>
@@ -6798,10 +6945,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B162" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C162" t="n">
         <v>0.538309470381804</v>
@@ -6818,10 +6965,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B163" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C163" t="n">
         <v>1.00343267585885</v>
@@ -6838,10 +6985,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B164" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C164" t="n">
         <v>-0.504106553891073</v>
@@ -6858,10 +7005,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B165" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C165" t="n">
         <v>-0.534859845209291</v>
@@ -6878,10 +7025,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B166" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C166" t="n">
         <v>3.82016596042458</v>
@@ -6898,10 +7045,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B167" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C167" t="n">
         <v>-1.77552207576108</v>
@@ -6918,10 +7065,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B168" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C168" t="n">
         <v>1.20769578711095</v>
@@ -6938,9 +7085,11 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>326</v>
-      </c>
-      <c r="B169"/>
+        <v>335</v>
+      </c>
+      <c r="B169" t="s">
+        <v>336</v>
+      </c>
       <c r="C169" t="n">
         <v>7.12952442854856</v>
       </c>
@@ -6956,10 +7105,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B170" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C170" t="n">
         <v>1.37685964631928</v>
@@ -6976,10 +7125,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B171" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C171" t="n">
         <v>-0.990283997579763</v>
@@ -6996,10 +7145,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B172" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C172" t="n">
         <v>0.661966231266305</v>
@@ -7016,9 +7165,11 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>333</v>
-      </c>
-      <c r="B173"/>
+        <v>343</v>
+      </c>
+      <c r="B173" t="s">
+        <v>344</v>
+      </c>
       <c r="C173" t="n">
         <v>-0.720288995757547</v>
       </c>
@@ -7034,10 +7185,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="B174" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C174" t="n">
         <v>-0.99277251435773</v>
@@ -7054,10 +7205,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="B175" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C175" t="n">
         <v>3.13711530574593</v>
@@ -7074,9 +7225,11 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>338</v>
-      </c>
-      <c r="B176"/>
+        <v>349</v>
+      </c>
+      <c r="B176" t="s">
+        <v>350</v>
+      </c>
       <c r="C176" t="n">
         <v>-0.548566689962835</v>
       </c>
@@ -7092,10 +7245,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B177" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="C177" t="n">
         <v>-1.24722445989082</v>
@@ -7112,9 +7265,11 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>341</v>
-      </c>
-      <c r="B178"/>
+        <v>353</v>
+      </c>
+      <c r="B178" t="s">
+        <v>354</v>
+      </c>
       <c r="C178" t="n">
         <v>1.53679984984142</v>
       </c>
@@ -7130,10 +7285,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="B179" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C179" t="n">
         <v>1.13228401984972</v>
@@ -7150,10 +7305,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="B180" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C180" t="n">
         <v>-0.970716415691692</v>
@@ -7170,10 +7325,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="B181" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C181" t="n">
         <v>-2.50490724557057</v>
@@ -7190,10 +7345,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="B182" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="C182" t="n">
         <v>-0.509508058558763</v>
@@ -7210,10 +7365,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="B183" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C183" t="n">
         <v>1.0041796621114</v>
@@ -7230,10 +7385,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="B184" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C184" t="n">
         <v>1.05488735061938</v>
@@ -7250,10 +7405,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B185" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="C185" t="n">
         <v>-0.618412446599855</v>
@@ -7270,10 +7425,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="B186" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="C186" t="n">
         <v>-0.946217933865206</v>
@@ -7290,10 +7445,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="B187" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="C187" t="n">
         <v>-0.674523950638975</v>
@@ -7310,10 +7465,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="B188" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="C188" t="n">
         <v>-1.20802509148944</v>
@@ -7330,9 +7485,11 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>362</v>
-      </c>
-      <c r="B189"/>
+        <v>375</v>
+      </c>
+      <c r="B189" t="s">
+        <v>376</v>
+      </c>
       <c r="C189" t="n">
         <v>-1.16219472186126</v>
       </c>
@@ -7348,10 +7505,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B190" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C190" t="n">
         <v>-1.56103804942152</v>
@@ -7368,10 +7525,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B191" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C191" t="n">
         <v>-0.958325866737614</v>
@@ -7388,10 +7545,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="B192" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="C192" t="n">
         <v>-0.712598825987059</v>
@@ -7408,10 +7565,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="B193" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C193" t="n">
         <v>0.842024017195133</v>
@@ -7428,9 +7585,11 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>371</v>
-      </c>
-      <c r="B194"/>
+        <v>385</v>
+      </c>
+      <c r="B194" t="s">
+        <v>386</v>
+      </c>
       <c r="C194" t="n">
         <v>0.928272672650811</v>
       </c>
@@ -7446,9 +7605,11 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>372</v>
-      </c>
-      <c r="B195"/>
+        <v>387</v>
+      </c>
+      <c r="B195" t="s">
+        <v>388</v>
+      </c>
       <c r="C195" t="n">
         <v>1.25187872551793</v>
       </c>
@@ -7464,10 +7625,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="B196" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="C196" t="n">
         <v>-0.991324205020356</v>
@@ -7484,7 +7645,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="B197"/>
       <c r="C197" t="n">
@@ -7502,10 +7663,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="B198" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="C198" t="n">
         <v>-0.681849711019799</v>
@@ -7522,10 +7683,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="B199" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="C199" t="n">
         <v>-0.824724973993322</v>
@@ -7542,10 +7703,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="B200" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="C200" t="n">
         <v>2.20273074571683</v>
@@ -7562,10 +7723,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="B201" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="C201" t="n">
         <v>0.445579190563953</v>
@@ -7582,10 +7743,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="B202" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="C202" t="n">
         <v>-0.468024059039173</v>
@@ -7602,9 +7763,11 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>386</v>
-      </c>
-      <c r="B203"/>
+        <v>402</v>
+      </c>
+      <c r="B203" t="s">
+        <v>403</v>
+      </c>
       <c r="C203" t="n">
         <v>0.68821545749328</v>
       </c>
@@ -7620,10 +7783,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="B204" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="C204" t="n">
         <v>-0.582969283014088</v>
@@ -7640,9 +7803,11 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>389</v>
-      </c>
-      <c r="B205"/>
+        <v>406</v>
+      </c>
+      <c r="B205" t="s">
+        <v>407</v>
+      </c>
       <c r="C205" t="n">
         <v>-0.868488725069145</v>
       </c>
@@ -7658,10 +7823,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="B206" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="C206" t="n">
         <v>-1.29543737637262</v>
@@ -7678,10 +7843,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="B207" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="C207" t="n">
         <v>-0.659745779579745</v>
@@ -7698,9 +7863,11 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>394</v>
-      </c>
-      <c r="B208"/>
+        <v>412</v>
+      </c>
+      <c r="B208" t="s">
+        <v>413</v>
+      </c>
       <c r="C208" t="n">
         <v>-0.943393040152008</v>
       </c>
@@ -7716,10 +7883,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="B209" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="C209" t="n">
         <v>-1.21080803680936</v>
@@ -7736,10 +7903,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="B210" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="C210" t="n">
         <v>-2.69129924651186</v>
@@ -7756,10 +7923,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B211" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="C211" t="n">
         <v>1.45634352560415</v>
@@ -7776,10 +7943,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="B212" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="C212" t="n">
         <v>-1.74663511402214</v>
@@ -7796,9 +7963,11 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>403</v>
-      </c>
-      <c r="B213"/>
+        <v>422</v>
+      </c>
+      <c r="B213" t="s">
+        <v>423</v>
+      </c>
       <c r="C213" t="n">
         <v>1.04629797926584</v>
       </c>
@@ -7814,10 +7983,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="B214" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="C214" t="n">
         <v>1.90905330997891</v>
@@ -7834,10 +8003,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="B215" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="C215" t="n">
         <v>0.625915060566096</v>
@@ -7854,10 +8023,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B216" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="C216" t="n">
         <v>0.650042014863834</v>
@@ -7874,10 +8043,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="B217" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="C217" t="n">
         <v>-1.08246712589051</v>
@@ -7894,10 +8063,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="B218" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="C218" t="n">
         <v>-0.715622823043361</v>
@@ -7914,10 +8083,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="B219" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="C219" t="n">
         <v>0.501039829287299</v>
@@ -7934,10 +8103,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="B220" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="C220" t="n">
         <v>-1.21282633580344</v>
@@ -7954,10 +8123,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="B221" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="C221" t="n">
         <v>-0.834806988527375</v>
@@ -7974,10 +8143,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="B222" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="C222" t="n">
         <v>0.765145677315172</v>
@@ -7994,10 +8163,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="B223" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="C223" t="n">
         <v>0.461280498686952</v>
@@ -8014,10 +8183,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="B224" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="C224" t="n">
         <v>-0.813281319299722</v>
@@ -8034,10 +8203,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="B225" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="C225" t="n">
         <v>0.582485030938671</v>
@@ -8054,9 +8223,11 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>428</v>
-      </c>
-      <c r="B226"/>
+        <v>448</v>
+      </c>
+      <c r="B226" t="s">
+        <v>449</v>
+      </c>
       <c r="C226" t="n">
         <v>1.2126376994102</v>
       </c>
@@ -8072,10 +8243,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="B227" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="C227" t="n">
         <v>0.919868956385202</v>
@@ -8092,10 +8263,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="B228" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="C228" t="n">
         <v>-0.607974703668593</v>
@@ -8112,10 +8283,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="B229" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="C229" t="n">
         <v>0.719414779920915</v>
@@ -8132,10 +8303,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="B230" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="C230" t="n">
         <v>-1.12199975524312</v>
@@ -8152,10 +8323,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="B231" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="C231" t="n">
         <v>0.651157002053355</v>
@@ -8172,10 +8343,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="B232" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="C232" t="n">
         <v>-0.478360270751501</v>
@@ -8192,10 +8363,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="B233" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="C233" t="n">
         <v>-1.18488917122268</v>
@@ -8212,10 +8383,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="B234" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="C234" t="n">
         <v>-0.483093667107564</v>
@@ -8232,10 +8403,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="B235" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="C235" t="n">
         <v>-0.938809778620424</v>
@@ -8252,10 +8423,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="B236" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="C236" t="n">
         <v>3.42325214781656</v>
@@ -8272,10 +8443,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="B237" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="C237" t="n">
         <v>-0.771094485378997</v>
@@ -8292,10 +8463,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="B238" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="C238" t="n">
         <v>-0.87311832542334</v>
@@ -8312,10 +8483,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="B239" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="C239" t="n">
         <v>0.985978357194561</v>
@@ -8332,10 +8503,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="B240" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="C240" t="n">
         <v>-0.860995270765911</v>
@@ -8352,10 +8523,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="B241" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="C241" t="n">
         <v>-0.888052253017986</v>
@@ -8372,9 +8543,11 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>459</v>
-      </c>
-      <c r="B242"/>
+        <v>480</v>
+      </c>
+      <c r="B242" t="s">
+        <v>481</v>
+      </c>
       <c r="C242" t="n">
         <v>-1.17231992802862</v>
       </c>
@@ -8390,10 +8563,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="B243" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="C243" t="n">
         <v>-0.655578055410476</v>
@@ -8410,10 +8583,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="B244" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="C244" t="n">
         <v>-1.90560271336565</v>
@@ -8430,10 +8603,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="B245" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="C245" t="n">
         <v>-0.476694381130008</v>
@@ -8450,10 +8623,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="B246" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="C246" t="n">
         <v>-1.10884375438845</v>
@@ -8470,10 +8643,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="B247" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="C247" t="n">
         <v>0.438814114929346</v>
@@ -8490,10 +8663,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="B248" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="C248" t="n">
         <v>-0.561106675506371</v>
@@ -8510,10 +8683,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="B249" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="C249" t="n">
         <v>0.648099576354918</v>
@@ -8530,10 +8703,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="B250" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="C250" t="n">
         <v>0.922988365300976</v>
@@ -8550,10 +8723,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="B251" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="C251" t="n">
         <v>-0.554388448308029</v>
@@ -8570,10 +8743,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="B252" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="C252" t="n">
         <v>-1.08986739872919</v>
@@ -8590,10 +8763,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="B253" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="C253" t="n">
         <v>-1.11022111774626</v>
@@ -8610,10 +8783,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="B254" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="C254" t="n">
         <v>-0.838191868512815</v>
@@ -8630,10 +8803,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="B255" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="C255" t="n">
         <v>-0.789643421502736</v>
@@ -8650,10 +8823,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="B256" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="C256" t="n">
         <v>-0.928749807448394</v>
@@ -8670,10 +8843,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="B257" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="C257" t="n">
         <v>-0.490401532350776</v>
@@ -8690,10 +8863,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="B258" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="C258" t="n">
         <v>0.79527347565738</v>
@@ -8710,10 +8883,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="B259" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="C259" t="n">
         <v>1.97440581342086</v>
@@ -8730,10 +8903,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="B260" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="C260" t="n">
         <v>2.55882224101742</v>
@@ -8750,10 +8923,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="B261" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="C261" t="n">
         <v>2.82097309352818</v>
@@ -8770,10 +8943,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="B262" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="C262" t="n">
         <v>2.1524133347114</v>
@@ -8790,10 +8963,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="B263" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="C263" t="n">
         <v>0.71254338955562</v>
@@ -8810,10 +8983,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="B264" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="C264" t="n">
         <v>0.513368850582845</v>
@@ -8830,10 +9003,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="B265" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="C265" t="n">
         <v>1.71494916500843</v>
@@ -8850,10 +9023,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="B266" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="C266" t="n">
         <v>-0.37349042053493</v>
@@ -8870,10 +9043,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="B267" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="C267" t="n">
         <v>0.63007085978911</v>
@@ -8890,10 +9063,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="B268" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="C268" t="n">
         <v>0.929011526285819</v>
@@ -8910,9 +9083,11 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>512</v>
-      </c>
-      <c r="B269"/>
+        <v>534</v>
+      </c>
+      <c r="B269" t="s">
+        <v>535</v>
+      </c>
       <c r="C269" t="n">
         <v>-1.9231970397725</v>
       </c>
@@ -8928,10 +9103,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="B270" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="C270" t="n">
         <v>-0.803202327961936</v>
@@ -8948,10 +9123,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="B271" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="C271" t="n">
         <v>1.6306300498751</v>
@@ -8968,10 +9143,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="B272" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="C272" t="n">
         <v>-0.579526037396398</v>
@@ -8988,10 +9163,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="B273" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="C273" t="n">
         <v>-0.748151083710163</v>
@@ -9008,10 +9183,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="B274" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="C274" t="n">
         <v>-1.3411932526037</v>
@@ -9028,10 +9203,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="B275" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="C275" t="n">
         <v>-1.19732637318374</v>
@@ -9048,10 +9223,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="B276" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="C276" t="n">
         <v>-0.87753213689564</v>
@@ -9068,10 +9243,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="B277" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="C277" t="n">
         <v>-0.547567396699759</v>
@@ -9088,10 +9263,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="B278" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="C278" t="n">
         <v>-0.844154504058217</v>
@@ -9108,10 +9283,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="B279" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="C279" t="n">
         <v>1.59151900448122</v>
@@ -9128,10 +9303,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="B280" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="C280" t="n">
         <v>-0.671271747221399</v>
@@ -9148,10 +9323,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="B281" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="C281" t="n">
         <v>-0.586554785854836</v>
@@ -9168,9 +9343,11 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>537</v>
-      </c>
-      <c r="B282"/>
+        <v>560</v>
+      </c>
+      <c r="B282" t="s">
+        <v>561</v>
+      </c>
       <c r="C282" t="n">
         <v>0.781811661411167</v>
       </c>
@@ -9186,10 +9363,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="B283" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="C283" t="n">
         <v>1.97153462483566</v>
@@ -9206,10 +9383,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="B284" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="C284" t="n">
         <v>-1.19034136352921</v>
@@ -9226,10 +9403,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="B285" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="C285" t="n">
         <v>0.537229204430042</v>
@@ -9246,10 +9423,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="B286" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="C286" t="n">
         <v>2.19664300550684</v>
@@ -9266,10 +9443,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="B287" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="C287" t="n">
         <v>2.48545244295538</v>
@@ -9286,10 +9463,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="B288" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="C288" t="n">
         <v>-0.655583208548041</v>
@@ -9306,10 +9483,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="B289" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="C289" t="n">
         <v>-0.996260727498901</v>
@@ -9326,10 +9503,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="B290" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="C290" t="n">
         <v>-0.924018339780731</v>
@@ -9346,10 +9523,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="B291" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="C291" t="n">
         <v>2.09656276054642</v>
@@ -9366,10 +9543,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="B292" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="C292" t="n">
         <v>-1.04255896233858</v>
@@ -9386,10 +9563,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="B293" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="C293" t="n">
         <v>-0.641594235705951</v>
@@ -9406,10 +9583,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="B294" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="C294" t="n">
         <v>-1.3396761242717</v>
@@ -9426,10 +9603,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="B295" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="C295" t="n">
         <v>-1.36469740507158</v>
@@ -9446,10 +9623,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="B296" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="C296" t="n">
         <v>-0.325924705919312</v>
@@ -9466,10 +9643,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="B297" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="C297" t="n">
         <v>-0.401514534305857</v>
@@ -9486,10 +9663,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="B298" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="C298" t="n">
         <v>-2.4475628829669</v>
@@ -9506,10 +9683,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="B299" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="C299" t="n">
         <v>-0.889889663211747</v>
@@ -9526,10 +9703,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="B300" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="C300" t="n">
         <v>-1.50186321722263</v>
@@ -9546,10 +9723,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="B301" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="C301" t="n">
         <v>-0.503357157769819</v>
@@ -9566,10 +9743,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="B302" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="C302" t="n">
         <v>-0.887434794205069</v>
@@ -9586,10 +9763,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="B303" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="C303" t="n">
         <v>-1.05839851240055</v>
@@ -9606,10 +9783,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="B304" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="C304" t="n">
         <v>-0.91723346049135</v>
@@ -9626,9 +9803,11 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>582</v>
-      </c>
-      <c r="B305"/>
+        <v>606</v>
+      </c>
+      <c r="B305" t="s">
+        <v>607</v>
+      </c>
       <c r="C305" t="n">
         <v>-1.70475056187001</v>
       </c>
@@ -9644,7 +9823,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
       <c r="B306"/>
       <c r="C306" t="n">
@@ -9662,10 +9841,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="B307" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="C307" t="n">
         <v>0.631176134582508</v>
@@ -9682,10 +9861,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="B308" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
       <c r="C308" t="n">
         <v>0.607934190358023</v>
@@ -9702,10 +9881,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="B309" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="C309" t="n">
         <v>-1.33820669807988</v>
@@ -9722,10 +9901,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="B310" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
       <c r="C310" t="n">
         <v>-0.356635044799787</v>
@@ -9742,10 +9921,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B311" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="C311" t="n">
         <v>0.913442682644047</v>
@@ -9762,10 +9941,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="B312" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="C312" t="n">
         <v>3.24665109650975</v>
@@ -9782,10 +9961,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
       <c r="B313" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="C313" t="n">
         <v>1.37886875074459</v>
@@ -9802,10 +9981,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
       <c r="B314" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
       <c r="C314" t="n">
         <v>-0.609809244453954</v>
@@ -9822,10 +10001,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="B315" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="C315" t="n">
         <v>-1.07006787233791</v>
@@ -9842,10 +10021,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="B316" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
       <c r="C316" t="n">
         <v>1.04333446334594</v>
@@ -9862,10 +10041,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="B317" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="C317" t="n">
         <v>0.992386961823329</v>
@@ -9882,10 +10061,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="B318" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
       <c r="C318" t="n">
         <v>-0.908558623318826</v>
@@ -9902,10 +10081,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
       <c r="B319" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
       <c r="C319" t="n">
         <v>1.0156779985027</v>
@@ -9922,9 +10101,11 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>610</v>
-      </c>
-      <c r="B320"/>
+        <v>635</v>
+      </c>
+      <c r="B320" t="s">
+        <v>636</v>
+      </c>
       <c r="C320" t="n">
         <v>-1.15624927709246</v>
       </c>
@@ -9940,9 +10121,11 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>611</v>
-      </c>
-      <c r="B321"/>
+        <v>637</v>
+      </c>
+      <c r="B321" t="s">
+        <v>638</v>
+      </c>
       <c r="C321" t="n">
         <v>-1.65799658456102</v>
       </c>
@@ -9958,10 +10141,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="B322" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="C322" t="n">
         <v>0.735410689964625</v>
@@ -9978,10 +10161,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="B323" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="C323" t="n">
         <v>0.455629425140767</v>
@@ -9998,10 +10181,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="B324" t="s">
-        <v>617</v>
+        <v>644</v>
       </c>
       <c r="C324" t="n">
         <v>-0.798779404405971</v>
@@ -10018,10 +10201,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="B325" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
       <c r="C325" t="n">
         <v>2.6393332948713</v>
@@ -10038,10 +10221,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
       <c r="B326" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
       <c r="C326" t="n">
         <v>1.24204871484535</v>
@@ -10058,10 +10241,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="B327" t="s">
-        <v>623</v>
+        <v>650</v>
       </c>
       <c r="C327" t="n">
         <v>0.638988093690683</v>
@@ -10078,10 +10261,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>624</v>
+        <v>651</v>
       </c>
       <c r="B328" t="s">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="C328" t="n">
         <v>1.66002101244777</v>
@@ -10098,10 +10281,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="B329" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="C329" t="n">
         <v>1.20250703933992</v>
@@ -10118,10 +10301,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>628</v>
+        <v>655</v>
       </c>
       <c r="B330" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="C330" t="n">
         <v>-0.531722646944365</v>
@@ -10138,10 +10321,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="B331" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="C331" t="n">
         <v>0.993624210916008</v>
@@ -10158,10 +10341,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>632</v>
+        <v>659</v>
       </c>
       <c r="B332" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="C332" t="n">
         <v>2.23963534198783</v>
@@ -10178,10 +10361,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="B333" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="C333" t="n">
         <v>0.619074631066088</v>
@@ -10198,10 +10381,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
       <c r="B334" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="C334" t="n">
         <v>-0.939631678490342</v>
@@ -10218,10 +10401,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>638</v>
+        <v>665</v>
       </c>
       <c r="B335" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
       <c r="C335" t="n">
         <v>-1.48964441413196</v>
@@ -10238,10 +10421,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="B336" t="s">
-        <v>641</v>
+        <v>668</v>
       </c>
       <c r="C336" t="n">
         <v>6.87265009948919</v>
@@ -10258,10 +10441,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="B337" t="s">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="C337" t="n">
         <v>-1.02464423420405</v>
@@ -10278,9 +10461,11 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>644</v>
-      </c>
-      <c r="B338"/>
+        <v>671</v>
+      </c>
+      <c r="B338" t="s">
+        <v>672</v>
+      </c>
       <c r="C338" t="n">
         <v>2.6021430599939</v>
       </c>
@@ -10296,10 +10481,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
       <c r="B339" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="C339" t="n">
         <v>-1.00182583915246</v>
@@ -10316,10 +10501,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="B340" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="C340" t="n">
         <v>6.88851069606848</v>
@@ -10336,10 +10521,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="B341" t="s">
-        <v>650</v>
+        <v>678</v>
       </c>
       <c r="C341" t="n">
         <v>0.742812782849975</v>
@@ -10356,10 +10541,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>651</v>
+        <v>679</v>
       </c>
       <c r="B342" t="s">
-        <v>652</v>
+        <v>680</v>
       </c>
       <c r="C342" t="n">
         <v>-2.2678809265223</v>
@@ -10376,10 +10561,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="B343" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
       <c r="C343" t="n">
         <v>-2.70979911540612</v>
@@ -10396,10 +10581,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="B344" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="C344" t="n">
         <v>-0.710564506891915</v>
@@ -10416,10 +10601,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
       <c r="B345" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="C345" t="n">
         <v>-1.81937263341042</v>
@@ -10436,10 +10621,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
       <c r="B346" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="C346" t="n">
         <v>-0.934043932372323</v>
@@ -10456,10 +10641,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>661</v>
+        <v>689</v>
       </c>
       <c r="B347" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="C347" t="n">
         <v>-0.87799301229595</v>
@@ -10476,10 +10661,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>663</v>
+        <v>691</v>
       </c>
       <c r="B348" t="s">
-        <v>664</v>
+        <v>692</v>
       </c>
       <c r="C348" t="n">
         <v>-0.753415948880096</v>
@@ -10496,10 +10681,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
       <c r="B349" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
       <c r="C349" t="n">
         <v>3.15811056937113</v>
@@ -10516,10 +10701,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="B350" t="s">
-        <v>668</v>
+        <v>696</v>
       </c>
       <c r="C350" t="n">
         <v>-1.15489045691507</v>
@@ -10536,10 +10721,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>669</v>
+        <v>697</v>
       </c>
       <c r="B351" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
       <c r="C351" t="n">
         <v>-0.508244306139895</v>
@@ -10556,10 +10741,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>671</v>
+        <v>699</v>
       </c>
       <c r="B352" t="s">
-        <v>672</v>
+        <v>700</v>
       </c>
       <c r="C352" t="n">
         <v>1.32721268541282</v>
@@ -10576,10 +10761,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>673</v>
+        <v>701</v>
       </c>
       <c r="B353" t="s">
-        <v>674</v>
+        <v>702</v>
       </c>
       <c r="C353" t="n">
         <v>-2.77108000619471</v>
@@ -10596,11 +10781,9 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>675</v>
-      </c>
-      <c r="B354" t="s">
-        <v>676</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="B354"/>
       <c r="C354" t="n">
         <v>-0.991004629396932</v>
       </c>
@@ -10616,10 +10799,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>677</v>
+        <v>704</v>
       </c>
       <c r="B355" t="s">
-        <v>678</v>
+        <v>705</v>
       </c>
       <c r="C355" t="n">
         <v>-0.53206602209222</v>
@@ -10636,10 +10819,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>679</v>
+        <v>706</v>
       </c>
       <c r="B356" t="s">
-        <v>680</v>
+        <v>707</v>
       </c>
       <c r="C356" t="n">
         <v>-0.614420437792352</v>
@@ -10656,10 +10839,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="B357" t="s">
-        <v>682</v>
+        <v>709</v>
       </c>
       <c r="C357" t="n">
         <v>-0.568522830850171</v>
@@ -10676,10 +10859,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>683</v>
+        <v>710</v>
       </c>
       <c r="B358" t="s">
-        <v>684</v>
+        <v>711</v>
       </c>
       <c r="C358" t="n">
         <v>-0.676149991523235</v>
@@ -10696,9 +10879,11 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>685</v>
-      </c>
-      <c r="B359"/>
+        <v>712</v>
+      </c>
+      <c r="B359" t="s">
+        <v>713</v>
+      </c>
       <c r="C359" t="n">
         <v>5.80989458265298</v>
       </c>
@@ -10714,10 +10899,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="B360" t="s">
-        <v>687</v>
+        <v>715</v>
       </c>
       <c r="C360" t="n">
         <v>0.854039386214792</v>
@@ -10734,10 +10919,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="B361" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
       <c r="C361" t="n">
         <v>1.28087286328545</v>
@@ -10754,10 +10939,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="B362" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="C362" t="n">
         <v>0.884523150331122</v>
@@ -10774,10 +10959,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="B363" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C363" t="n">
         <v>1.6077177032082</v>
@@ -10794,10 +10979,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="B364" t="s">
-        <v>695</v>
+        <v>723</v>
       </c>
       <c r="C364" t="n">
         <v>-1.00860177617318</v>
@@ -10814,10 +10999,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>696</v>
+        <v>724</v>
       </c>
       <c r="B365" t="s">
-        <v>697</v>
+        <v>725</v>
       </c>
       <c r="C365" t="n">
         <v>-0.651916232207993</v>
@@ -10834,10 +11019,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
       <c r="B366" t="s">
-        <v>699</v>
+        <v>727</v>
       </c>
       <c r="C366" t="n">
         <v>-0.742465119403678</v>
@@ -10854,10 +11039,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="B367" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
       <c r="C367" t="n">
         <v>-1.32570810232538</v>
@@ -10874,10 +11059,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="B368" t="s">
-        <v>703</v>
+        <v>731</v>
       </c>
       <c r="C368" t="n">
         <v>4.83450898936947</v>
@@ -10894,10 +11079,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="B369" t="s">
-        <v>705</v>
+        <v>733</v>
       </c>
       <c r="C369" t="n">
         <v>-0.748496331475042</v>
@@ -10914,10 +11099,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>706</v>
+        <v>734</v>
       </c>
       <c r="B370" t="s">
-        <v>707</v>
+        <v>735</v>
       </c>
       <c r="C370" t="n">
         <v>-0.90541696489623</v>
@@ -10934,10 +11119,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>708</v>
+        <v>736</v>
       </c>
       <c r="B371" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
       <c r="C371" t="n">
         <v>-1.38090251466329</v>
@@ -10954,10 +11139,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="B372" t="s">
-        <v>711</v>
+        <v>739</v>
       </c>
       <c r="C372" t="n">
         <v>-2.44462492812489</v>
@@ -10974,10 +11159,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="B373" t="s">
-        <v>713</v>
+        <v>741</v>
       </c>
       <c r="C373" t="n">
         <v>-0.377897393128798</v>
@@ -10994,10 +11179,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>714</v>
+        <v>742</v>
       </c>
       <c r="B374" t="s">
-        <v>715</v>
+        <v>743</v>
       </c>
       <c r="C374" t="n">
         <v>-0.949160652337793</v>
@@ -11014,10 +11199,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>716</v>
+        <v>744</v>
       </c>
       <c r="B375" t="s">
-        <v>717</v>
+        <v>745</v>
       </c>
       <c r="C375" t="n">
         <v>-1.97122673973754</v>
@@ -11034,10 +11219,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="B376" t="s">
-        <v>719</v>
+        <v>747</v>
       </c>
       <c r="C376" t="n">
         <v>-0.405333574587849</v>
@@ -11054,10 +11239,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>720</v>
+        <v>748</v>
       </c>
       <c r="B377" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
       <c r="C377" t="n">
         <v>0.725114619548553</v>
@@ -11074,10 +11259,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
       <c r="B378" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
       <c r="C378" t="n">
         <v>0.644530038298867</v>
@@ -11094,10 +11279,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
       <c r="B379" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
       <c r="C379" t="n">
         <v>1.54583398459145</v>
@@ -11114,10 +11299,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>726</v>
+        <v>754</v>
       </c>
       <c r="B380" t="s">
-        <v>727</v>
+        <v>755</v>
       </c>
       <c r="C380" t="n">
         <v>-1.03902274793104</v>
@@ -11134,10 +11319,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="B381" t="s">
-        <v>729</v>
+        <v>757</v>
       </c>
       <c r="C381" t="n">
         <v>3.29145133747803</v>
@@ -11154,10 +11339,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>730</v>
+        <v>758</v>
       </c>
       <c r="B382" t="s">
-        <v>731</v>
+        <v>759</v>
       </c>
       <c r="C382" t="n">
         <v>-0.719766442374924</v>
@@ -11174,10 +11359,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>732</v>
+        <v>760</v>
       </c>
       <c r="B383" t="s">
-        <v>733</v>
+        <v>761</v>
       </c>
       <c r="C383" t="n">
         <v>-1.29993249545695</v>
@@ -11194,10 +11379,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>734</v>
+        <v>762</v>
       </c>
       <c r="B384" t="s">
-        <v>735</v>
+        <v>763</v>
       </c>
       <c r="C384" t="n">
         <v>5.00643474442189</v>
@@ -11214,10 +11399,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>736</v>
+        <v>764</v>
       </c>
       <c r="B385" t="s">
-        <v>737</v>
+        <v>765</v>
       </c>
       <c r="C385" t="n">
         <v>1.14655801605315</v>
@@ -11234,10 +11419,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="B386" t="s">
-        <v>739</v>
+        <v>767</v>
       </c>
       <c r="C386" t="n">
         <v>-2.07550810450395</v>
@@ -11254,10 +11439,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>740</v>
+        <v>768</v>
       </c>
       <c r="B387" t="s">
-        <v>741</v>
+        <v>769</v>
       </c>
       <c r="C387" t="n">
         <v>2.13244995274013</v>
@@ -11274,10 +11459,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
       <c r="B388" t="s">
-        <v>743</v>
+        <v>771</v>
       </c>
       <c r="C388" t="n">
         <v>0.835368939095635</v>
@@ -11294,10 +11479,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>744</v>
+        <v>772</v>
       </c>
       <c r="B389" t="s">
-        <v>745</v>
+        <v>773</v>
       </c>
       <c r="C389" t="n">
         <v>-0.339057493291731</v>
@@ -11314,10 +11499,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>746</v>
+        <v>774</v>
       </c>
       <c r="B390" t="s">
-        <v>747</v>
+        <v>775</v>
       </c>
       <c r="C390" t="n">
         <v>-0.463603137594143</v>
@@ -11334,10 +11519,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>748</v>
+        <v>776</v>
       </c>
       <c r="B391" t="s">
-        <v>749</v>
+        <v>777</v>
       </c>
       <c r="C391" t="n">
         <v>-1.65649317357136</v>
@@ -11354,10 +11539,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>750</v>
+        <v>778</v>
       </c>
       <c r="B392" t="s">
-        <v>751</v>
+        <v>779</v>
       </c>
       <c r="C392" t="n">
         <v>-0.595850505231374</v>
@@ -11374,10 +11559,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>752</v>
+        <v>780</v>
       </c>
       <c r="B393" t="s">
-        <v>753</v>
+        <v>781</v>
       </c>
       <c r="C393" t="n">
         <v>-0.901713064175042</v>
@@ -11394,10 +11579,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>754</v>
+        <v>782</v>
       </c>
       <c r="B394" t="s">
-        <v>755</v>
+        <v>783</v>
       </c>
       <c r="C394" t="n">
         <v>-0.684534010161341</v>
@@ -11414,10 +11599,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>756</v>
+        <v>784</v>
       </c>
       <c r="B395" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="C395" t="n">
         <v>1.10093366827893</v>
@@ -11434,10 +11619,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="B396" t="s">
-        <v>759</v>
+        <v>787</v>
       </c>
       <c r="C396" t="n">
         <v>3.16831074672968</v>
@@ -11454,10 +11639,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>760</v>
+        <v>788</v>
       </c>
       <c r="B397" t="s">
-        <v>761</v>
+        <v>789</v>
       </c>
       <c r="C397" t="n">
         <v>0.488611691896853</v>
@@ -11474,10 +11659,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>762</v>
+        <v>790</v>
       </c>
       <c r="B398" t="s">
-        <v>763</v>
+        <v>791</v>
       </c>
       <c r="C398" t="n">
         <v>1.07129469562762</v>
@@ -11494,10 +11679,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>764</v>
+        <v>792</v>
       </c>
       <c r="B399" t="s">
-        <v>765</v>
+        <v>793</v>
       </c>
       <c r="C399" t="n">
         <v>0.823831209060614</v>
@@ -11514,9 +11699,11 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>766</v>
-      </c>
-      <c r="B400"/>
+        <v>794</v>
+      </c>
+      <c r="B400" t="s">
+        <v>795</v>
+      </c>
       <c r="C400" t="n">
         <v>1.0869656076018</v>
       </c>
@@ -11532,10 +11719,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>767</v>
+        <v>796</v>
       </c>
       <c r="B401" t="s">
-        <v>768</v>
+        <v>797</v>
       </c>
       <c r="C401" t="n">
         <v>0.821548502457501</v>
@@ -11552,10 +11739,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>769</v>
+        <v>798</v>
       </c>
       <c r="B402" t="s">
-        <v>770</v>
+        <v>799</v>
       </c>
       <c r="C402" t="n">
         <v>1.3326372037664</v>
@@ -11572,10 +11759,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>771</v>
+        <v>800</v>
       </c>
       <c r="B403" t="s">
-        <v>772</v>
+        <v>801</v>
       </c>
       <c r="C403" t="n">
         <v>-3.32328651846984</v>
@@ -11592,10 +11779,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>773</v>
+        <v>802</v>
       </c>
       <c r="B404" t="s">
-        <v>774</v>
+        <v>803</v>
       </c>
       <c r="C404" t="n">
         <v>1.85013474563754</v>
@@ -11612,10 +11799,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>775</v>
+        <v>804</v>
       </c>
       <c r="B405" t="s">
-        <v>776</v>
+        <v>805</v>
       </c>
       <c r="C405" t="n">
         <v>-0.522091983698695</v>
@@ -11632,10 +11819,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>777</v>
+        <v>806</v>
       </c>
       <c r="B406" t="s">
-        <v>778</v>
+        <v>807</v>
       </c>
       <c r="C406" t="n">
         <v>3.16851773139003</v>
@@ -11652,10 +11839,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>779</v>
+        <v>808</v>
       </c>
       <c r="B407" t="s">
-        <v>780</v>
+        <v>809</v>
       </c>
       <c r="C407" t="n">
         <v>5.27999631833129</v>
@@ -11672,10 +11859,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>781</v>
+        <v>810</v>
       </c>
       <c r="B408" t="s">
-        <v>782</v>
+        <v>811</v>
       </c>
       <c r="C408" t="n">
         <v>-0.352039854831222</v>
@@ -11692,10 +11879,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>783</v>
+        <v>812</v>
       </c>
       <c r="B409" t="s">
-        <v>784</v>
+        <v>813</v>
       </c>
       <c r="C409" t="n">
         <v>-0.861094490532264</v>
@@ -11712,10 +11899,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>785</v>
+        <v>814</v>
       </c>
       <c r="B410" t="s">
-        <v>786</v>
+        <v>815</v>
       </c>
       <c r="C410" t="n">
         <v>-2.31824702240274</v>
@@ -11732,10 +11919,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>787</v>
+        <v>816</v>
       </c>
       <c r="B411" t="s">
-        <v>788</v>
+        <v>817</v>
       </c>
       <c r="C411" t="n">
         <v>-1.68488224536259</v>
@@ -11752,10 +11939,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>789</v>
+        <v>818</v>
       </c>
       <c r="B412" t="s">
-        <v>790</v>
+        <v>819</v>
       </c>
       <c r="C412" t="n">
         <v>-0.477638603727587</v>
@@ -11772,10 +11959,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>791</v>
+        <v>820</v>
       </c>
       <c r="B413" t="s">
-        <v>792</v>
+        <v>821</v>
       </c>
       <c r="C413" t="n">
         <v>1.45474212444372</v>
@@ -11792,10 +11979,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>793</v>
+        <v>822</v>
       </c>
       <c r="B414" t="s">
-        <v>794</v>
+        <v>823</v>
       </c>
       <c r="C414" t="n">
         <v>-0.796386826122809</v>
@@ -11812,10 +11999,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>795</v>
+        <v>824</v>
       </c>
       <c r="B415" t="s">
-        <v>796</v>
+        <v>825</v>
       </c>
       <c r="C415" t="n">
         <v>-0.781728056400178</v>
@@ -11832,9 +12019,11 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>797</v>
-      </c>
-      <c r="B416"/>
+        <v>826</v>
+      </c>
+      <c r="B416" t="s">
+        <v>827</v>
+      </c>
       <c r="C416" t="n">
         <v>3.19257862499141</v>
       </c>
@@ -11850,10 +12039,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="B417" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="C417" t="n">
         <v>2.37160278997647</v>
@@ -11870,10 +12059,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="B418" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="C418" t="n">
         <v>1.40488260714503</v>
@@ -11890,10 +12079,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>802</v>
+        <v>832</v>
       </c>
       <c r="B419" t="s">
-        <v>803</v>
+        <v>833</v>
       </c>
       <c r="C419" t="n">
         <v>0.616340992185865</v>
@@ -11910,10 +12099,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="B420" t="s">
-        <v>805</v>
+        <v>835</v>
       </c>
       <c r="C420" t="n">
         <v>1.24871150327798</v>
@@ -11930,10 +12119,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>806</v>
+        <v>836</v>
       </c>
       <c r="B421" t="s">
-        <v>807</v>
+        <v>837</v>
       </c>
       <c r="C421" t="n">
         <v>0.757661771993165</v>
@@ -11950,10 +12139,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>808</v>
+        <v>838</v>
       </c>
       <c r="B422" t="s">
-        <v>809</v>
+        <v>839</v>
       </c>
       <c r="C422" t="n">
         <v>3.44218110158919</v>
@@ -11970,10 +12159,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>810</v>
+        <v>840</v>
       </c>
       <c r="B423" t="s">
-        <v>811</v>
+        <v>841</v>
       </c>
       <c r="C423" t="n">
         <v>-0.281841532259217</v>
@@ -11990,9 +12179,11 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>812</v>
-      </c>
-      <c r="B424"/>
+        <v>842</v>
+      </c>
+      <c r="B424" t="s">
+        <v>843</v>
+      </c>
       <c r="C424" t="n">
         <v>-0.643437182626253</v>
       </c>
@@ -12008,10 +12199,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>813</v>
+        <v>844</v>
       </c>
       <c r="B425" t="s">
-        <v>814</v>
+        <v>845</v>
       </c>
       <c r="C425" t="n">
         <v>6.35956664843127</v>
@@ -12028,10 +12219,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>815</v>
+        <v>846</v>
       </c>
       <c r="B426" t="s">
-        <v>816</v>
+        <v>847</v>
       </c>
       <c r="C426" t="n">
         <v>-2.56154685301497</v>
@@ -12048,10 +12239,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>817</v>
+        <v>848</v>
       </c>
       <c r="B427" t="s">
-        <v>818</v>
+        <v>849</v>
       </c>
       <c r="C427" t="n">
         <v>1.54860967403077</v>
@@ -12068,10 +12259,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>819</v>
+        <v>850</v>
       </c>
       <c r="B428" t="s">
-        <v>820</v>
+        <v>851</v>
       </c>
       <c r="C428" t="n">
         <v>1.74895421528541</v>
@@ -12088,9 +12279,11 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>821</v>
-      </c>
-      <c r="B429"/>
+        <v>852</v>
+      </c>
+      <c r="B429" t="s">
+        <v>853</v>
+      </c>
       <c r="C429" t="n">
         <v>1.27968712791386</v>
       </c>
@@ -12106,10 +12299,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>822</v>
+        <v>854</v>
       </c>
       <c r="B430" t="s">
-        <v>823</v>
+        <v>855</v>
       </c>
       <c r="C430" t="n">
         <v>-0.682988951026375</v>
@@ -12126,10 +12319,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>824</v>
+        <v>856</v>
       </c>
       <c r="B431" t="s">
-        <v>825</v>
+        <v>857</v>
       </c>
       <c r="C431" t="n">
         <v>-0.921320418416786</v>
@@ -12146,10 +12339,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>826</v>
+        <v>858</v>
       </c>
       <c r="B432" t="s">
-        <v>827</v>
+        <v>859</v>
       </c>
       <c r="C432" t="n">
         <v>0.816142279147998</v>
@@ -12166,10 +12359,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>828</v>
+        <v>860</v>
       </c>
       <c r="B433" t="s">
-        <v>829</v>
+        <v>861</v>
       </c>
       <c r="C433" t="n">
         <v>3.01508524949279</v>
@@ -12186,10 +12379,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>830</v>
+        <v>862</v>
       </c>
       <c r="B434" t="s">
-        <v>831</v>
+        <v>863</v>
       </c>
       <c r="C434" t="n">
         <v>0.7119464817269</v>
@@ -12206,10 +12399,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>832</v>
+        <v>864</v>
       </c>
       <c r="B435" t="s">
-        <v>833</v>
+        <v>865</v>
       </c>
       <c r="C435" t="n">
         <v>0.640993243628755</v>
@@ -12226,10 +12419,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>834</v>
+        <v>866</v>
       </c>
       <c r="B436" t="s">
-        <v>835</v>
+        <v>867</v>
       </c>
       <c r="C436" t="n">
         <v>0.710507515673108</v>
@@ -12246,10 +12439,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>836</v>
+        <v>868</v>
       </c>
       <c r="B437" t="s">
-        <v>837</v>
+        <v>869</v>
       </c>
       <c r="C437" t="n">
         <v>1.19015459433768</v>
@@ -12266,10 +12459,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>838</v>
+        <v>870</v>
       </c>
       <c r="B438" t="s">
-        <v>839</v>
+        <v>871</v>
       </c>
       <c r="C438" t="n">
         <v>1.66255149118565</v>
@@ -12286,10 +12479,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>840</v>
+        <v>872</v>
       </c>
       <c r="B439" t="s">
-        <v>841</v>
+        <v>873</v>
       </c>
       <c r="C439" t="n">
         <v>-0.772016310195649</v>
@@ -12306,9 +12499,11 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>842</v>
-      </c>
-      <c r="B440"/>
+        <v>874</v>
+      </c>
+      <c r="B440" t="s">
+        <v>875</v>
+      </c>
       <c r="C440" t="n">
         <v>-0.533182709861507</v>
       </c>
@@ -12324,10 +12519,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>843</v>
+        <v>876</v>
       </c>
       <c r="B441" t="s">
-        <v>844</v>
+        <v>877</v>
       </c>
       <c r="C441" t="n">
         <v>1.79760538414977</v>
@@ -12344,10 +12539,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>845</v>
+        <v>878</v>
       </c>
       <c r="B442" t="s">
-        <v>846</v>
+        <v>879</v>
       </c>
       <c r="C442" t="n">
         <v>0.823685125470272</v>
@@ -12364,7 +12559,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>847</v>
+        <v>880</v>
       </c>
       <c r="B443"/>
       <c r="C443" t="n">
@@ -12382,10 +12577,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>848</v>
+        <v>881</v>
       </c>
       <c r="B444" t="s">
-        <v>849</v>
+        <v>882</v>
       </c>
       <c r="C444" t="n">
         <v>-2.15366220884386</v>
@@ -12402,10 +12597,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>850</v>
+        <v>883</v>
       </c>
       <c r="B445" t="s">
-        <v>851</v>
+        <v>884</v>
       </c>
       <c r="C445" t="n">
         <v>0.431661116677499</v>
@@ -12422,10 +12617,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>852</v>
+        <v>885</v>
       </c>
       <c r="B446" t="s">
-        <v>853</v>
+        <v>886</v>
       </c>
       <c r="C446" t="n">
         <v>-1.15929103823482</v>
@@ -12442,10 +12637,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>854</v>
+        <v>887</v>
       </c>
       <c r="B447" t="s">
-        <v>855</v>
+        <v>888</v>
       </c>
       <c r="C447" t="n">
         <v>-1.43232531913718</v>
@@ -12462,10 +12657,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>856</v>
+        <v>889</v>
       </c>
       <c r="B448" t="s">
-        <v>857</v>
+        <v>890</v>
       </c>
       <c r="C448" t="n">
         <v>2.25743976281707</v>
@@ -12482,10 +12677,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>858</v>
+        <v>891</v>
       </c>
       <c r="B449" t="s">
-        <v>859</v>
+        <v>892</v>
       </c>
       <c r="C449" t="n">
         <v>0.706077377379543</v>
@@ -12502,10 +12697,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>860</v>
+        <v>893</v>
       </c>
       <c r="B450" t="s">
-        <v>861</v>
+        <v>894</v>
       </c>
       <c r="C450" t="n">
         <v>0.614388093943201</v>
@@ -12522,10 +12717,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>862</v>
+        <v>895</v>
       </c>
       <c r="B451" t="s">
-        <v>863</v>
+        <v>896</v>
       </c>
       <c r="C451" t="n">
         <v>-1.20613498753253</v>
@@ -12542,10 +12737,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>864</v>
+        <v>897</v>
       </c>
       <c r="B452" t="s">
-        <v>865</v>
+        <v>898</v>
       </c>
       <c r="C452" t="n">
         <v>-1.13920655465719</v>
@@ -12562,10 +12757,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>866</v>
+        <v>899</v>
       </c>
       <c r="B453" t="s">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="C453" t="n">
         <v>-0.308568302234469</v>
@@ -12582,10 +12777,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>868</v>
+        <v>901</v>
       </c>
       <c r="B454" t="s">
-        <v>869</v>
+        <v>902</v>
       </c>
       <c r="C454" t="n">
         <v>1.01569131122072</v>
@@ -12602,10 +12797,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>870</v>
+        <v>903</v>
       </c>
       <c r="B455" t="s">
-        <v>871</v>
+        <v>904</v>
       </c>
       <c r="C455" t="n">
         <v>7.31936373904947</v>
@@ -12622,10 +12817,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>872</v>
+        <v>905</v>
       </c>
       <c r="B456" t="s">
-        <v>873</v>
+        <v>906</v>
       </c>
       <c r="C456" t="n">
         <v>2.32899404719058</v>
@@ -12642,10 +12837,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>874</v>
+        <v>907</v>
       </c>
       <c r="B457" t="s">
-        <v>875</v>
+        <v>908</v>
       </c>
       <c r="C457" t="n">
         <v>-0.346848121533646</v>
@@ -12662,9 +12857,11 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>876</v>
-      </c>
-      <c r="B458"/>
+        <v>909</v>
+      </c>
+      <c r="B458" t="s">
+        <v>910</v>
+      </c>
       <c r="C458" t="n">
         <v>1.79560963749152</v>
       </c>
@@ -12680,10 +12877,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>877</v>
+        <v>911</v>
       </c>
       <c r="B459" t="s">
-        <v>878</v>
+        <v>912</v>
       </c>
       <c r="C459" t="n">
         <v>1.61860165164637</v>
@@ -12700,10 +12897,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>879</v>
+        <v>913</v>
       </c>
       <c r="B460" t="s">
-        <v>880</v>
+        <v>914</v>
       </c>
       <c r="C460" t="n">
         <v>-0.760302811606888</v>
@@ -12720,10 +12917,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>881</v>
+        <v>915</v>
       </c>
       <c r="B461" t="s">
-        <v>882</v>
+        <v>916</v>
       </c>
       <c r="C461" t="n">
         <v>0.789125180577433</v>
@@ -12740,10 +12937,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>883</v>
+        <v>917</v>
       </c>
       <c r="B462" t="s">
-        <v>884</v>
+        <v>918</v>
       </c>
       <c r="C462" t="n">
         <v>-1.1467664427347</v>
@@ -12760,9 +12957,11 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>885</v>
-      </c>
-      <c r="B463"/>
+        <v>919</v>
+      </c>
+      <c r="B463" t="s">
+        <v>920</v>
+      </c>
       <c r="C463" t="n">
         <v>1.31461866129495</v>
       </c>
@@ -12778,10 +12977,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>886</v>
+        <v>921</v>
       </c>
       <c r="B464" t="s">
-        <v>887</v>
+        <v>922</v>
       </c>
       <c r="C464" t="n">
         <v>2.4250007980033</v>
@@ -12798,10 +12997,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>888</v>
+        <v>923</v>
       </c>
       <c r="B465" t="s">
-        <v>889</v>
+        <v>924</v>
       </c>
       <c r="C465" t="n">
         <v>-0.991978248060095</v>
@@ -12818,10 +13017,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>890</v>
+        <v>925</v>
       </c>
       <c r="B466" t="s">
-        <v>891</v>
+        <v>926</v>
       </c>
       <c r="C466" t="n">
         <v>-1.36058909255997</v>
@@ -12838,10 +13037,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>892</v>
+        <v>927</v>
       </c>
       <c r="B467" t="s">
-        <v>893</v>
+        <v>928</v>
       </c>
       <c r="C467" t="n">
         <v>-0.772154683462249</v>
@@ -12858,10 +13057,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>894</v>
+        <v>929</v>
       </c>
       <c r="B468" t="s">
-        <v>895</v>
+        <v>930</v>
       </c>
       <c r="C468" t="n">
         <v>-0.701260900513651</v>
@@ -12878,10 +13077,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>896</v>
+        <v>931</v>
       </c>
       <c r="B469" t="s">
-        <v>897</v>
+        <v>932</v>
       </c>
       <c r="C469" t="n">
         <v>-1.10182887256174</v>
@@ -12898,10 +13097,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>898</v>
+        <v>933</v>
       </c>
       <c r="B470" t="s">
-        <v>899</v>
+        <v>934</v>
       </c>
       <c r="C470" t="n">
         <v>-0.921888369797205</v>
@@ -12918,10 +13117,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>900</v>
+        <v>935</v>
       </c>
       <c r="B471" t="s">
-        <v>901</v>
+        <v>936</v>
       </c>
       <c r="C471" t="n">
         <v>0.581508848666336</v>
@@ -12938,10 +13137,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>902</v>
+        <v>937</v>
       </c>
       <c r="B472" t="s">
-        <v>903</v>
+        <v>938</v>
       </c>
       <c r="C472" t="n">
         <v>-0.744516675788382</v>
@@ -12958,10 +13157,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>904</v>
+        <v>939</v>
       </c>
       <c r="B473" t="s">
-        <v>905</v>
+        <v>940</v>
       </c>
       <c r="C473" t="n">
         <v>-0.438317524354182</v>
@@ -12978,10 +13177,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>906</v>
+        <v>941</v>
       </c>
       <c r="B474" t="s">
-        <v>907</v>
+        <v>942</v>
       </c>
       <c r="C474" t="n">
         <v>-1.70361011493333</v>
@@ -12998,10 +13197,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>908</v>
+        <v>943</v>
       </c>
       <c r="B475" t="s">
-        <v>909</v>
+        <v>944</v>
       </c>
       <c r="C475" t="n">
         <v>0.494568047842849</v>
@@ -13018,10 +13217,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>910</v>
+        <v>945</v>
       </c>
       <c r="B476" t="s">
-        <v>911</v>
+        <v>946</v>
       </c>
       <c r="C476" t="n">
         <v>-0.857262958920621</v>
@@ -13038,10 +13237,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>912</v>
+        <v>947</v>
       </c>
       <c r="B477" t="s">
-        <v>913</v>
+        <v>948</v>
       </c>
       <c r="C477" t="n">
         <v>2.47146379066418</v>
@@ -13058,10 +13257,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>914</v>
+        <v>949</v>
       </c>
       <c r="B478" t="s">
-        <v>915</v>
+        <v>950</v>
       </c>
       <c r="C478" t="n">
         <v>0.645630888002754</v>
@@ -13078,10 +13277,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>916</v>
+        <v>951</v>
       </c>
       <c r="B479" t="s">
-        <v>917</v>
+        <v>952</v>
       </c>
       <c r="C479" t="n">
         <v>1.61355598413595</v>
@@ -13098,10 +13297,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>918</v>
+        <v>953</v>
       </c>
       <c r="B480" t="s">
-        <v>919</v>
+        <v>954</v>
       </c>
       <c r="C480" t="n">
         <v>0.773629985274586</v>
@@ -13118,10 +13317,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>920</v>
+        <v>955</v>
       </c>
       <c r="B481" t="s">
-        <v>921</v>
+        <v>956</v>
       </c>
       <c r="C481" t="n">
         <v>0.5662550527431</v>
@@ -13138,10 +13337,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>922</v>
+        <v>957</v>
       </c>
       <c r="B482" t="s">
-        <v>923</v>
+        <v>958</v>
       </c>
       <c r="C482" t="n">
         <v>0.776900761757562</v>
@@ -13158,10 +13357,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>924</v>
+        <v>959</v>
       </c>
       <c r="B483" t="s">
-        <v>925</v>
+        <v>960</v>
       </c>
       <c r="C483" t="n">
         <v>1.75764861744737</v>
@@ -13178,9 +13377,11 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>926</v>
-      </c>
-      <c r="B484"/>
+        <v>961</v>
+      </c>
+      <c r="B484" t="s">
+        <v>962</v>
+      </c>
       <c r="C484" t="n">
         <v>2.22132214678997</v>
       </c>
@@ -13196,10 +13397,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>927</v>
+        <v>963</v>
       </c>
       <c r="B485" t="s">
-        <v>928</v>
+        <v>964</v>
       </c>
       <c r="C485" t="n">
         <v>6.53708874022674</v>
@@ -13216,10 +13417,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>929</v>
+        <v>965</v>
       </c>
       <c r="B486" t="s">
-        <v>930</v>
+        <v>966</v>
       </c>
       <c r="C486" t="n">
         <v>1.37716876449066</v>
@@ -13236,10 +13437,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>931</v>
+        <v>967</v>
       </c>
       <c r="B487" t="s">
-        <v>932</v>
+        <v>968</v>
       </c>
       <c r="C487" t="n">
         <v>-0.772358339978199</v>
@@ -13256,10 +13457,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>933</v>
+        <v>969</v>
       </c>
       <c r="B488" t="s">
-        <v>934</v>
+        <v>970</v>
       </c>
       <c r="C488" t="n">
         <v>-0.819544500035467</v>
@@ -13276,10 +13477,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>935</v>
+        <v>971</v>
       </c>
       <c r="B489" t="s">
-        <v>936</v>
+        <v>972</v>
       </c>
       <c r="C489" t="n">
         <v>1.68794935225909</v>
@@ -13296,10 +13497,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>937</v>
+        <v>973</v>
       </c>
       <c r="B490" t="s">
-        <v>938</v>
+        <v>974</v>
       </c>
       <c r="C490" t="n">
         <v>6.60676173298947</v>
@@ -13316,10 +13517,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>939</v>
+        <v>975</v>
       </c>
       <c r="B491" t="s">
-        <v>940</v>
+        <v>976</v>
       </c>
       <c r="C491" t="n">
         <v>1.30656933580887</v>
@@ -13336,7 +13537,7 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>941</v>
+        <v>977</v>
       </c>
       <c r="B492"/>
       <c r="C492" t="n">
@@ -13354,10 +13555,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>942</v>
+        <v>978</v>
       </c>
       <c r="B493" t="s">
-        <v>943</v>
+        <v>979</v>
       </c>
       <c r="C493" t="n">
         <v>1.20053003195125</v>
@@ -13374,10 +13575,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>944</v>
+        <v>980</v>
       </c>
       <c r="B494" t="s">
-        <v>945</v>
+        <v>981</v>
       </c>
       <c r="C494" t="n">
         <v>-0.674786385695906</v>
@@ -13394,10 +13595,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>946</v>
+        <v>982</v>
       </c>
       <c r="B495" t="s">
-        <v>947</v>
+        <v>983</v>
       </c>
       <c r="C495" t="n">
         <v>-0.684735897643682</v>
@@ -13414,10 +13615,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>948</v>
+        <v>984</v>
       </c>
       <c r="B496" t="s">
-        <v>949</v>
+        <v>985</v>
       </c>
       <c r="C496" t="n">
         <v>-1.03307278465023</v>
@@ -13434,7 +13635,7 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>950</v>
+        <v>986</v>
       </c>
       <c r="B497"/>
       <c r="C497" t="n">
@@ -13452,10 +13653,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>951</v>
+        <v>987</v>
       </c>
       <c r="B498" t="s">
-        <v>952</v>
+        <v>988</v>
       </c>
       <c r="C498" t="n">
         <v>-0.802996666719983</v>
@@ -13472,10 +13673,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>953</v>
+        <v>989</v>
       </c>
       <c r="B499" t="s">
-        <v>954</v>
+        <v>990</v>
       </c>
       <c r="C499" t="n">
         <v>1.68769043510256</v>
@@ -13492,10 +13693,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>955</v>
+        <v>991</v>
       </c>
       <c r="B500" t="s">
-        <v>956</v>
+        <v>992</v>
       </c>
       <c r="C500" t="n">
         <v>2.14034662440921</v>
@@ -13512,9 +13713,11 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>957</v>
-      </c>
-      <c r="B501"/>
+        <v>993</v>
+      </c>
+      <c r="B501" t="s">
+        <v>994</v>
+      </c>
       <c r="C501" t="n">
         <v>-0.56970381195471</v>
       </c>
@@ -13530,9 +13733,11 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>958</v>
-      </c>
-      <c r="B502"/>
+        <v>995</v>
+      </c>
+      <c r="B502" t="s">
+        <v>996</v>
+      </c>
       <c r="C502" t="n">
         <v>-0.688234012919951</v>
       </c>
@@ -13548,9 +13753,11 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>959</v>
-      </c>
-      <c r="B503"/>
+        <v>997</v>
+      </c>
+      <c r="B503" t="s">
+        <v>998</v>
+      </c>
       <c r="C503" t="n">
         <v>-0.561065361534562</v>
       </c>
@@ -13566,10 +13773,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>960</v>
+        <v>999</v>
       </c>
       <c r="B504" t="s">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="C504" t="n">
         <v>2.84281589350023</v>
@@ -13586,10 +13793,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>962</v>
+        <v>1001</v>
       </c>
       <c r="B505" t="s">
-        <v>963</v>
+        <v>1002</v>
       </c>
       <c r="C505" t="n">
         <v>1.95249662234065</v>
@@ -13606,10 +13813,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>964</v>
+        <v>1003</v>
       </c>
       <c r="B506" t="s">
-        <v>965</v>
+        <v>1004</v>
       </c>
       <c r="C506" t="n">
         <v>-0.629769014133891</v>
@@ -13626,10 +13833,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>966</v>
+        <v>1005</v>
       </c>
       <c r="B507" t="s">
-        <v>967</v>
+        <v>1006</v>
       </c>
       <c r="C507" t="n">
         <v>1.09974398762085</v>
@@ -13646,10 +13853,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>968</v>
+        <v>1007</v>
       </c>
       <c r="B508" t="s">
-        <v>969</v>
+        <v>1008</v>
       </c>
       <c r="C508" t="n">
         <v>2.02793547664834</v>
@@ -13666,10 +13873,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>970</v>
+        <v>1009</v>
       </c>
       <c r="B509" t="s">
-        <v>971</v>
+        <v>1010</v>
       </c>
       <c r="C509" t="n">
         <v>-0.938741323642573</v>
@@ -13686,10 +13893,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>972</v>
+        <v>1011</v>
       </c>
       <c r="B510" t="s">
-        <v>973</v>
+        <v>1012</v>
       </c>
       <c r="C510" t="n">
         <v>-0.681623738263874</v>
@@ -13706,10 +13913,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>974</v>
+        <v>1013</v>
       </c>
       <c r="B511" t="s">
-        <v>975</v>
+        <v>1014</v>
       </c>
       <c r="C511" t="n">
         <v>-1.14485028245152</v>
@@ -13726,10 +13933,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>976</v>
+        <v>1015</v>
       </c>
       <c r="B512" t="s">
-        <v>977</v>
+        <v>1016</v>
       </c>
       <c r="C512" t="n">
         <v>1.45155424342245</v>
@@ -13746,10 +13953,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>978</v>
+        <v>1017</v>
       </c>
       <c r="B513" t="s">
-        <v>979</v>
+        <v>1018</v>
       </c>
       <c r="C513" t="n">
         <v>1.86665613536901</v>
@@ -13766,10 +13973,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>980</v>
+        <v>1019</v>
       </c>
       <c r="B514" t="s">
-        <v>981</v>
+        <v>1020</v>
       </c>
       <c r="C514" t="n">
         <v>-1.94996890586772</v>
@@ -13786,10 +13993,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>982</v>
+        <v>1021</v>
       </c>
       <c r="B515" t="s">
-        <v>983</v>
+        <v>1022</v>
       </c>
       <c r="C515" t="n">
         <v>0.793817885000123</v>
@@ -13806,10 +14013,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>984</v>
+        <v>1023</v>
       </c>
       <c r="B516" t="s">
-        <v>985</v>
+        <v>1024</v>
       </c>
       <c r="C516" t="n">
         <v>-0.353601074567039</v>
@@ -13826,10 +14033,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>986</v>
+        <v>1025</v>
       </c>
       <c r="B517" t="s">
-        <v>987</v>
+        <v>1026</v>
       </c>
       <c r="C517" t="n">
         <v>-1.72522991031578</v>
@@ -13846,10 +14053,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>988</v>
+        <v>1027</v>
       </c>
       <c r="B518" t="s">
-        <v>989</v>
+        <v>1028</v>
       </c>
       <c r="C518" t="n">
         <v>-0.90953516905881</v>
@@ -13866,10 +14073,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>990</v>
+        <v>1029</v>
       </c>
       <c r="B519" t="s">
-        <v>991</v>
+        <v>1030</v>
       </c>
       <c r="C519" t="n">
         <v>-0.444619289004724</v>
@@ -13886,10 +14093,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>992</v>
+        <v>1031</v>
       </c>
       <c r="B520" t="s">
-        <v>993</v>
+        <v>1032</v>
       </c>
       <c r="C520" t="n">
         <v>1.2302737718183</v>
@@ -13906,10 +14113,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>994</v>
+        <v>1033</v>
       </c>
       <c r="B521" t="s">
-        <v>995</v>
+        <v>1034</v>
       </c>
       <c r="C521" t="n">
         <v>5.017869164721</v>
@@ -13926,10 +14133,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>996</v>
+        <v>1035</v>
       </c>
       <c r="B522" t="s">
-        <v>997</v>
+        <v>1036</v>
       </c>
       <c r="C522" t="n">
         <v>2.35341650143585</v>
@@ -13946,10 +14153,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>998</v>
+        <v>1037</v>
       </c>
       <c r="B523" t="s">
-        <v>999</v>
+        <v>1038</v>
       </c>
       <c r="C523" t="n">
         <v>-0.31301801633967</v>
@@ -13966,10 +14173,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>1000</v>
+        <v>1039</v>
       </c>
       <c r="B524" t="s">
-        <v>1001</v>
+        <v>1040</v>
       </c>
       <c r="C524" t="n">
         <v>0.515689356802921</v>
@@ -13986,10 +14193,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>1002</v>
+        <v>1041</v>
       </c>
       <c r="B525" t="s">
-        <v>1003</v>
+        <v>1042</v>
       </c>
       <c r="C525" t="n">
         <v>2.32813837511984</v>
@@ -14006,10 +14213,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>1004</v>
+        <v>1043</v>
       </c>
       <c r="B526" t="s">
-        <v>1005</v>
+        <v>1044</v>
       </c>
       <c r="C526" t="n">
         <v>-1.11172311497546</v>
@@ -14026,10 +14233,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>1006</v>
+        <v>1045</v>
       </c>
       <c r="B527" t="s">
-        <v>1007</v>
+        <v>1046</v>
       </c>
       <c r="C527" t="n">
         <v>-1.26945646146602</v>
@@ -14046,10 +14253,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>1008</v>
+        <v>1047</v>
       </c>
       <c r="B528" t="s">
-        <v>1009</v>
+        <v>1048</v>
       </c>
       <c r="C528" t="n">
         <v>-0.700892939551156</v>
@@ -14066,10 +14273,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>1010</v>
+        <v>1049</v>
       </c>
       <c r="B529" t="s">
-        <v>1011</v>
+        <v>1050</v>
       </c>
       <c r="C529" t="n">
         <v>-0.50059632771378</v>
@@ -14086,10 +14293,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>1012</v>
+        <v>1051</v>
       </c>
       <c r="B530" t="s">
-        <v>1013</v>
+        <v>1052</v>
       </c>
       <c r="C530" t="n">
         <v>1.03111923898732</v>
@@ -14106,10 +14313,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>1014</v>
+        <v>1053</v>
       </c>
       <c r="B531" t="s">
-        <v>1015</v>
+        <v>1054</v>
       </c>
       <c r="C531" t="n">
         <v>-1.57471859078584</v>
@@ -14126,9 +14333,11 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B532"/>
+        <v>1055</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1056</v>
+      </c>
       <c r="C532" t="n">
         <v>0.861283808144698</v>
       </c>
@@ -14144,10 +14353,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>1017</v>
+        <v>1057</v>
       </c>
       <c r="B533" t="s">
-        <v>1018</v>
+        <v>1058</v>
       </c>
       <c r="C533" t="n">
         <v>-0.711025533689182</v>
@@ -14164,10 +14373,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>1019</v>
+        <v>1059</v>
       </c>
       <c r="B534" t="s">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="C534" t="n">
         <v>-0.559599104017633</v>
@@ -14184,7 +14393,7 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>1021</v>
+        <v>1061</v>
       </c>
       <c r="B535"/>
       <c r="C535" t="n">
@@ -14202,10 +14411,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>1022</v>
+        <v>1062</v>
       </c>
       <c r="B536" t="s">
-        <v>1023</v>
+        <v>1063</v>
       </c>
       <c r="C536" t="n">
         <v>1.69260319547415</v>
@@ -14222,10 +14431,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>1024</v>
+        <v>1064</v>
       </c>
       <c r="B537" t="s">
-        <v>1025</v>
+        <v>1065</v>
       </c>
       <c r="C537" t="n">
         <v>-0.354543239869949</v>
@@ -14242,10 +14451,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>1026</v>
+        <v>1066</v>
       </c>
       <c r="B538" t="s">
-        <v>1027</v>
+        <v>1067</v>
       </c>
       <c r="C538" t="n">
         <v>-0.42050048082467</v>
@@ -14262,10 +14471,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>1028</v>
+        <v>1068</v>
       </c>
       <c r="B539" t="s">
-        <v>1029</v>
+        <v>1069</v>
       </c>
       <c r="C539" t="n">
         <v>1.4887712797533</v>
@@ -14282,10 +14491,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>1030</v>
+        <v>1070</v>
       </c>
       <c r="B540" t="s">
-        <v>1031</v>
+        <v>1071</v>
       </c>
       <c r="C540" t="n">
         <v>-2.27943288103304</v>
@@ -14302,10 +14511,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>1032</v>
+        <v>1072</v>
       </c>
       <c r="B541" t="s">
-        <v>1033</v>
+        <v>1073</v>
       </c>
       <c r="C541" t="n">
         <v>2.24803294106838</v>
@@ -14322,10 +14531,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>1034</v>
+        <v>1074</v>
       </c>
       <c r="B542" t="s">
-        <v>1035</v>
+        <v>1075</v>
       </c>
       <c r="C542" t="n">
         <v>-0.39825992483895</v>
@@ -14342,10 +14551,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>1036</v>
+        <v>1076</v>
       </c>
       <c r="B543" t="s">
-        <v>1037</v>
+        <v>1077</v>
       </c>
       <c r="C543" t="n">
         <v>-0.568961813804418</v>
@@ -14362,10 +14571,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>1038</v>
+        <v>1078</v>
       </c>
       <c r="B544" t="s">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="C544" t="n">
         <v>2.68639913945959</v>
@@ -14382,10 +14591,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>1040</v>
+        <v>1080</v>
       </c>
       <c r="B545" t="s">
-        <v>1041</v>
+        <v>1081</v>
       </c>
       <c r="C545" t="n">
         <v>0.956524471260308</v>
@@ -14402,10 +14611,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>1042</v>
+        <v>1082</v>
       </c>
       <c r="B546" t="s">
-        <v>1043</v>
+        <v>1083</v>
       </c>
       <c r="C546" t="n">
         <v>-0.651689819693061</v>
@@ -14422,10 +14631,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>1044</v>
+        <v>1084</v>
       </c>
       <c r="B547" t="s">
-        <v>1045</v>
+        <v>1085</v>
       </c>
       <c r="C547" t="n">
         <v>-1.12693897387006</v>
@@ -14442,10 +14651,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>1046</v>
+        <v>1086</v>
       </c>
       <c r="B548" t="s">
-        <v>1047</v>
+        <v>1087</v>
       </c>
       <c r="C548" t="n">
         <v>-1.21122615629736</v>
@@ -14462,10 +14671,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>1048</v>
+        <v>1088</v>
       </c>
       <c r="B549" t="s">
-        <v>1049</v>
+        <v>1089</v>
       </c>
       <c r="C549" t="n">
         <v>-0.543572680112302</v>
@@ -14482,7 +14691,7 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>1050</v>
+        <v>1090</v>
       </c>
       <c r="B550"/>
       <c r="C550" t="n">
@@ -14500,7 +14709,7 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>1051</v>
+        <v>1091</v>
       </c>
       <c r="B551"/>
       <c r="C551" t="n">
@@ -14518,7 +14727,7 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>1052</v>
+        <v>1092</v>
       </c>
       <c r="B552"/>
       <c r="C552" t="n">
@@ -14536,7 +14745,7 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>1053</v>
+        <v>1093</v>
       </c>
       <c r="B553"/>
       <c r="C553" t="n">
@@ -14554,10 +14763,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>1054</v>
+        <v>1094</v>
       </c>
       <c r="B554" t="s">
-        <v>1055</v>
+        <v>1095</v>
       </c>
       <c r="C554" t="n">
         <v>1.14141766718513</v>
@@ -14574,10 +14783,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>1056</v>
+        <v>1096</v>
       </c>
       <c r="B555" t="s">
-        <v>1057</v>
+        <v>1097</v>
       </c>
       <c r="C555" t="n">
         <v>0.905777799317708</v>
@@ -14594,10 +14803,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>1058</v>
+        <v>1098</v>
       </c>
       <c r="B556" t="s">
-        <v>1059</v>
+        <v>1099</v>
       </c>
       <c r="C556" t="n">
         <v>-1.39165757662603</v>
@@ -14614,10 +14823,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>1060</v>
+        <v>1100</v>
       </c>
       <c r="B557" t="s">
-        <v>1061</v>
+        <v>1101</v>
       </c>
       <c r="C557" t="n">
         <v>1.4053315675535</v>
@@ -14634,10 +14843,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>1062</v>
+        <v>1102</v>
       </c>
       <c r="B558" t="s">
-        <v>1063</v>
+        <v>1103</v>
       </c>
       <c r="C558" t="n">
         <v>1.25576618779459</v>
@@ -14654,10 +14863,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>1064</v>
+        <v>1104</v>
       </c>
       <c r="B559" t="s">
-        <v>1065</v>
+        <v>1105</v>
       </c>
       <c r="C559" t="n">
         <v>1.76537363196949</v>
@@ -14674,9 +14883,11 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B560"/>
+        <v>1106</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1107</v>
+      </c>
       <c r="C560" t="n">
         <v>-0.710646272410223</v>
       </c>
@@ -14692,9 +14903,11 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B561"/>
+        <v>1108</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1109</v>
+      </c>
       <c r="C561" t="n">
         <v>1.52814864446554</v>
       </c>
@@ -14710,9 +14923,11 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B562"/>
+        <v>1110</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1111</v>
+      </c>
       <c r="C562" t="n">
         <v>0.378188504797697</v>
       </c>
@@ -14728,10 +14943,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>1069</v>
+        <v>1112</v>
       </c>
       <c r="B563" t="s">
-        <v>1070</v>
+        <v>1113</v>
       </c>
       <c r="C563" t="n">
         <v>-0.389260923590475</v>
@@ -14748,10 +14963,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>1071</v>
+        <v>1114</v>
       </c>
       <c r="B564" t="s">
-        <v>1072</v>
+        <v>1115</v>
       </c>
       <c r="C564" t="n">
         <v>1.45756966440858</v>
@@ -14768,10 +14983,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>1073</v>
+        <v>1116</v>
       </c>
       <c r="B565" t="s">
-        <v>1074</v>
+        <v>1117</v>
       </c>
       <c r="C565" t="n">
         <v>1.73785936847613</v>
@@ -14788,10 +15003,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>1075</v>
+        <v>1118</v>
       </c>
       <c r="B566" t="s">
-        <v>1076</v>
+        <v>1119</v>
       </c>
       <c r="C566" t="n">
         <v>-0.685205591091585</v>
@@ -14808,10 +15023,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>1077</v>
+        <v>1120</v>
       </c>
       <c r="B567" t="s">
-        <v>1078</v>
+        <v>1121</v>
       </c>
       <c r="C567" t="n">
         <v>-0.489148679964026</v>
@@ -14828,10 +15043,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>1079</v>
+        <v>1122</v>
       </c>
       <c r="B568" t="s">
-        <v>1080</v>
+        <v>1123</v>
       </c>
       <c r="C568" t="n">
         <v>0.930792785591126</v>
@@ -14848,10 +15063,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>1081</v>
+        <v>1124</v>
       </c>
       <c r="B569" t="s">
-        <v>1082</v>
+        <v>1125</v>
       </c>
       <c r="C569" t="n">
         <v>-0.632222481278306</v>
@@ -14868,10 +15083,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>1083</v>
+        <v>1126</v>
       </c>
       <c r="B570" t="s">
-        <v>1084</v>
+        <v>1127</v>
       </c>
       <c r="C570" t="n">
         <v>-0.594894418864054</v>
@@ -14888,10 +15103,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>1085</v>
+        <v>1128</v>
       </c>
       <c r="B571" t="s">
-        <v>1086</v>
+        <v>1129</v>
       </c>
       <c r="C571" t="n">
         <v>-0.566993658791175</v>
